--- a/fips/companies.xlsx
+++ b/fips/companies.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4540" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="1102">
   <si>
     <t>Общество с ограниченной ответственностью «Центр речевых технологий» (ООО «ЦРТ») (RU)</t>
   </si>
@@ -3230,12 +3230,455 @@
   <si>
     <t>Полигон Интегрейшн Украина</t>
   </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Спиктуит"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Стэл-Компьютерные Системы"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "ТвелвТек"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "ЦРТ-инновации"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Эффективная энергетика"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Яндекс"</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Бэнкс Софт Системс»</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Войс Коммьюникэйшн»</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Воколайз»</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Диктум»</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «КРУСТ»</t>
+  </si>
+  <si>
+    <t>Спиктуит</t>
+  </si>
+  <si>
+    <t>Стэл ЮГ</t>
+  </si>
+  <si>
+    <t>Стэл-Компьютерные Системы</t>
+  </si>
+  <si>
+    <t>ТвелвТек</t>
+  </si>
+  <si>
+    <t>Центр речевых технологий</t>
+  </si>
+  <si>
+    <t>ЦРТ-инновации</t>
+  </si>
+  <si>
+    <t>Эффективная энергетика</t>
+  </si>
+  <si>
+    <t>Яндекс</t>
+  </si>
+  <si>
+    <t>Воколайз</t>
+  </si>
+  <si>
+    <t>Диктум</t>
+  </si>
+  <si>
+    <t>КРУСТ</t>
+  </si>
+  <si>
+    <t>ООО "Спиктуит"</t>
+  </si>
+  <si>
+    <t>Юридический адрес: 115280, МОСКВА Г, ЛЕНИНСКАЯ СЛОБОДА УЛ, ДОМ 19, ЭТАЖ 3,КОМНАТА 21З-1Б</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Принято решение о ликвидации и назначении ликвидатора (дата внесения записи в ЕГРЮЛ: 19.04.2017)
+Учредитель Speaktoit LLC
+Api.ai was formerly known as Speaktoit LLC. The company was founded in 2010 and is based in Palo Alto, California. As of September 19, 2016, Api.ai operates as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subsidiary of Google Inc.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speaktoit LLC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+443 Waverley Street
+Palo Alto, CA 94301
+United States
+Phone:
+650-561-3876
+api.ai
+API.AI is now Dialogflow:   dialogflow.com</t>
+    </r>
+  </si>
+  <si>
+    <t>ug.stel.ru</t>
+  </si>
+  <si>
+    <t>Адрес: 344002,
+Россия, г. Ростов-на-Дону,
+ул. Нижнедонская, д. 9, этаж 3, офис 302
+Телефон: +7 (863) 219-15-51
+Факс: +7 (863) 219-15-51
+E-mail: ug@stel.ru</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Стэл ЮГ"</t>
+  </si>
+  <si>
+    <t>ООО "Стэл ЮГ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ООО "Стэл КС" </t>
+  </si>
+  <si>
+    <t>http://www.stel.ru</t>
+  </si>
+  <si>
+    <t>Бэнкс Софт Системс</t>
+  </si>
+  <si>
+    <t>Войс Коммьюникэйшн</t>
+  </si>
+  <si>
+    <t>ДСС Лаб</t>
+  </si>
+  <si>
+    <t>Милки Бразерс Груп</t>
+  </si>
+  <si>
+    <t>Проект - Профессиональные Инновационные Решения</t>
+  </si>
+  <si>
+    <t>Спич Драйв</t>
+  </si>
+  <si>
+    <t>Сурдофон</t>
+  </si>
+  <si>
+    <t>Телефонные системы</t>
+  </si>
+  <si>
+    <t>Кристалл</t>
+  </si>
+  <si>
+    <t>Адрес:  105082, Москва, ул. Большая Почтовая, д.55/59
+Телефон:  +7 (495) 77-55-123, 77-55-122
+E-mail:  stel@stel.ru</t>
+  </si>
+  <si>
+    <t>г.Самара, пр-кт.Волжский, д.35, кв.9, 443071</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Проект - Профессиональные Инновационные Решения»</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Спич Драйв»</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Сурдофон»</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью «Телефонные системы»</t>
+  </si>
+  <si>
+    <t>ЛЕКСИ</t>
+  </si>
+  <si>
+    <t>ООО "ТвелвТек"</t>
+  </si>
+  <si>
+    <t>www.speechpro.ru</t>
+  </si>
+  <si>
+    <t>Адрес: 196084, Санкт-Петербург, ул. Красуцкого, 4
+Почтовый адрес:196084, Санкт-Петербург, а/я 124 «Центр речевых технологий»
+Телефон:+7 (812) 325-88-48
+E-mail:stc-spb@speechpro.com
+Факс:+7 (812) 327-92-97</t>
+  </si>
+  <si>
+    <t>"Центр речевых технологий"</t>
+  </si>
+  <si>
+    <t>ООО "Центр речевых технологий"</t>
+  </si>
+  <si>
+    <t>Фактор связи</t>
+  </si>
+  <si>
+    <t>ООО "ЦРТ-инновации"</t>
+  </si>
+  <si>
+    <t>ООО "Эффективная энергетика"</t>
+  </si>
+  <si>
+    <t>н/д</t>
+  </si>
+  <si>
+    <t>yandex.ru</t>
+  </si>
+  <si>
+    <t>Адрес
+119021, Москва, ул. Льва Толстого, 16
+тел.: +7 495 739-70-00, 
+8 800 250-96-39, 8 800 250-YNDX 
+ +7 495 974-35-81
+факс: +7 495 739-70-70
+Отдел по связям с общественностью 
+pr@yandex-team.ru
+Помощь по проектам Яндекса и обращение к службе поддержки 
+yandex.ru/support</t>
+  </si>
+  <si>
+    <t>ООО "Яндекс"</t>
+  </si>
+  <si>
+    <t>ООО «БCC»</t>
+  </si>
+  <si>
+    <t>www.bssys.com</t>
+  </si>
+  <si>
+    <t>Адрес: 117105, г. Москва, Нагорный проезд, д. 5
+Телефон/факс: +7 (495) 785-0494
+E-mail: root@bssys.com
+www.bssys.com</t>
+  </si>
+  <si>
+    <t>ООО "Войс Коммьюникэйшн"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г. Москва , пер. Кожевнический 1-й, д.10, оф.3, 115114. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">119048, г МОСКВА 77, пер УЧЕБНЫЙ, ДОМ 2 
+45000000 8-499-1324971 
+info@vocalize.ru 
+</t>
+  </si>
+  <si>
+    <t>ЗАКУПКА №0273100000117000021 Приобретение лицензионного программного обеспечения, обеспечивающего аудиосопровождение текстовых материалов подсистемы "Официальный сайт ПФР" (2017 год)</t>
+  </si>
+  <si>
+    <t>ООО "Воколайз"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Учредители:
+44.1% Ермаков Владимир Викторович 
+24.3% Ашманов Игорь Станиславович 
+21.6% ЗАКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "АШМАНОВ И ПАРТНЕРЫ" 
+10% ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНФОВОТЧ ГРУПП" </t>
+  </si>
+  <si>
+    <t>ООО "Диктум"</t>
+  </si>
+  <si>
+    <t>603000, Россия, Нижегородская обл.,
+г. Нижний Новгород, ул.Короленко 19Б, оф. 115
+Тел: +7 (831) 202-16-04
+Факс: +7 (831) 202-16-05
+E-mail: info@dictum.ru</t>
+  </si>
+  <si>
+    <t>www.dictum.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью «ДСС Лаб» </t>
+  </si>
+  <si>
+    <t>OOO "ДСС Лаб"</t>
+  </si>
+  <si>
+    <t>dss-lab.ru</t>
+  </si>
+  <si>
+    <t>Телефон: +7 (495) 645-44-70
+E-mail: info@3itech.ru
+Адрес: 129343, Москва, проезд Серебрякова, д. 14, стр. 9, офис 11, Бизнес-центр “Silver Stone”</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью научно-производственная фирма "Кристалл"</t>
+  </si>
+  <si>
+    <t>krust-rus.com</t>
+  </si>
+  <si>
+    <t>г. Екатеринбург, ул. Луначарского, 221
+тел. (факс):  (343) 286-61-43, 286-54-20
+E-mail: info@krust-rus.com</t>
+  </si>
+  <si>
+    <t>ООО "КРУСТ"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью «Милки Бразерс Груп» </t>
+  </si>
+  <si>
+    <t>ООО "Милки Бразерс Груп"</t>
+  </si>
+  <si>
+    <t>143441, Московская область, Красногорский район, п//о Путилково, д Путилково, 69 км МКАД, Офисно-общественный комплекс ЗАО "Гринвуд", стр 1 
+Телефон(ы): +7 (903) 798-99-87</t>
+  </si>
+  <si>
+    <t>117105, г Москва, пр Нагорный, д 5 
+Телефон (495) 785-04-99
+Факс (495) 785-04-99</t>
+  </si>
+  <si>
+    <t>ООО "ПРОЕКТ-ПИР"</t>
+  </si>
+  <si>
+    <t>199155, г. Санкт-Петербург, ул. Железноводская, д. 40 кв. 55</t>
+  </si>
+  <si>
+    <t>Смирнов Валентин Александров - 
+ген. директор в составе Государственной экзаменационной комиссии по основной образовательной программе высшего образования ВМ.5626.* «Прикладная и экспериментальная лингвистика» по направлению подготовки 45.04.02 «Лингвистика», по уровню магистратура на 2017 год:в  Санкт-Петербургском государственном университете</t>
+  </si>
+  <si>
+    <t>ООО "Спич Драйв"</t>
+  </si>
+  <si>
+    <t>www.speech-drive.ru</t>
+  </si>
+  <si>
+    <t>ООО "Сурдофон"</t>
+  </si>
+  <si>
+    <t>www.surdophone.ru</t>
+  </si>
+  <si>
+    <t>Россия, Новосибирск, ул. Николаева, 11 (Академпарк), ООО "Сурдофон", тел./факс +7 (383) 363 30 77/78 info@surdophone.com</t>
+  </si>
+  <si>
+    <t>ООО "Телефонные системы"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Город:  Йошкар-Ола
+Адрес:  Петрова ул. 1
+Телефон:  +78362337050
+Сайт:  http://www.komunikator.ru
+ВКонтакте:  https://vk.com/komunikator_ru
+Facebook:  https://facebook.com/KomunikatorRu </t>
+  </si>
+  <si>
+    <t>www.komunikator.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общество с ограниченной ответственностью «Фактор связи» </t>
+  </si>
+  <si>
+    <t>ООО "Фактор связи"</t>
+  </si>
+  <si>
+    <t>Адрес 
+125047, МОСКВА Г, ТВЕРСКАЯ-ЯМСКАЯ 3-Я УЛ, ДОМ 39//5, СТРОЕНИЕ 1
+Телефон 
+(495)225-98-29</t>
+  </si>
+  <si>
+    <t>Дочернеее предприятие Акционерное общество
+«СИТРОНИКС Комплексные
+Автоматизированные Системы 
+Управления», входящего в холдинг АФК Система
+its@sitronics-cams.com
+Акционерное общество «СИТРОНИКС» 
+Тел: +7 (495) 225-98-29
+Факс: +7 (495) 225-98-27
+E-mail: info@sitronics.com
+http://www.sitronics.com
+109044 Москва, ул. Мельникова, д. 29</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью ЛЕКСИ</t>
+  </si>
+  <si>
+    <t>ООО ЛЕКСИ</t>
+  </si>
+  <si>
+    <t>Резидент Сколково</t>
+  </si>
+  <si>
+    <t>lexybot.com</t>
+  </si>
+  <si>
+    <t>E-mail: sales@lexybot.com
+Телефоны: +7 (495) 640–57–35
+Адрес: 105037, г. Москва, 1-я Парковая ул., 7, офис 501
+Сайт: lexybot.com
+Соцсети: https://www.facebook.com/lexyRobot , https://vk.com/lexybot , https://twitter.com/robotLexy , https://www.linkedin.com/company/llc-lexy , instagram.com</t>
+  </si>
+  <si>
+    <t>www.npf-crystall.ru</t>
+  </si>
+  <si>
+    <t>440011, г. Пенза, Пр. Победы, дом 13 
+Тел. (841-2) 48-28-90
+факс (841-2) 48-28-90
+e-mail: crystall@sura.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ООО "НПФ "КРИСТАЛЛ"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3266,6 +3709,24 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3313,8 +3774,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -3327,9 +3788,7 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3341,7 +3800,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3409,12 +3870,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tech_data.soft_by_f_72_73.2" displayName="tech_data.soft_by_f_72_73.2" comment="29c22e77-d85e-4c28-a8d0-a86d60c6cd5d" ref="A1:C395" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tech_data.soft_by_f_72_73.2" displayName="tech_data.soft_by_f_72_73.2" comment="29c22e77-d85e-4c28-a8d0-a86d60c6cd5d" ref="A1:C395" tableType="queryTable" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:C395"/>
   <tableColumns count="3">
-    <tableColumn id="1" uniqueName="1" name="key_type" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" uniqueName="2" name="soft_key" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="3" uniqueName="3" name="f_98" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="1" uniqueName="1" name="key_type" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" uniqueName="2" name="soft_key" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="3" uniqueName="3" name="f_98" queryTableFieldId="2" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3433,9 +3894,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3473,7 +3934,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3545,7 +4006,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19360,8 +19821,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20433,177 +20894,755 @@
         <v>994</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="226.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>53</v>
       </c>
@@ -21088,8 +22127,25 @@
     <hyperlink ref="G44" r:id="rId37"/>
     <hyperlink ref="G25" r:id="rId38"/>
     <hyperlink ref="G30" r:id="rId39"/>
+    <hyperlink ref="G49" r:id="rId40"/>
+    <hyperlink ref="G51" r:id="rId41"/>
+    <hyperlink ref="G52" r:id="rId42"/>
+    <hyperlink ref="G53" r:id="rId43"/>
+    <hyperlink ref="G70" r:id="rId44"/>
+    <hyperlink ref="G71" r:id="rId45"/>
+    <hyperlink ref="G76" r:id="rId46"/>
+    <hyperlink ref="G55" r:id="rId47"/>
+    <hyperlink ref="G72" r:id="rId48"/>
+    <hyperlink ref="G58" r:id="rId49"/>
+    <hyperlink ref="G61" r:id="rId50"/>
+    <hyperlink ref="G66" r:id="rId51"/>
+    <hyperlink ref="G67" r:id="rId52"/>
+    <hyperlink ref="G68" r:id="rId53"/>
+    <hyperlink ref="G74" r:id="rId54"/>
+    <hyperlink ref="G75" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId56"/>
 </worksheet>
 </file>
 

--- a/fips/companies.xlsx
+++ b/fips/companies.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Лист11" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист11!$A$1:$J$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист11!$A$1:$J$129</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Лист1!$A$1:$A$395</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Лист8!$A$1:$A$874</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="1307">
   <si>
     <t>Общество с ограниченной ответственностью «Центр речевых технологий» (ООО «ЦРТ») (RU)</t>
   </si>
@@ -2424,9 +2424,6 @@
   </si>
   <si>
     <t>Advanced Generation Interface</t>
-  </si>
-  <si>
-    <t>A.G.I Inc.</t>
   </si>
   <si>
     <t>Head Office 6-3-13-4F, Akasaka, Minato-ku, Tokyo 107-0052, Japan
@@ -2630,9 +2627,6 @@
     <t>International Business Machines Corporation</t>
   </si>
   <si>
-    <t>IBM</t>
-  </si>
-  <si>
     <t>www.ibm.com</t>
   </si>
   <si>
@@ -2679,12 +2673,6 @@
   </si>
   <si>
     <t>Корпорация С1</t>
-  </si>
-  <si>
-    <t>Корея</t>
-  </si>
-  <si>
-    <t>нет данных</t>
   </si>
   <si>
     <t>Creative Technology Ltd.</t>
@@ -3043,9 +3031,6 @@
     <t>Федеральное государственное бюджетное образовательное учреждение высшего образования «Воронежский государственный технический университет»</t>
   </si>
   <si>
-    <t>ФГБОУ ВО «ВГТУ»</t>
-  </si>
-  <si>
     <t>Воронежский государственный технический университет</t>
   </si>
   <si>
@@ -3078,9 +3063,6 @@
     <t>Федеральное государственное бюджетное образовательное учреждение высшего образования "Рязанский государственный радиотехнический университет"</t>
   </si>
   <si>
-    <t>ФГБОУ ВО «РГРТУ»</t>
-  </si>
-  <si>
     <t>Юридический адрес:
 390005, г. Рязань, ул. Гагарина, 59/1</t>
   </si>
@@ -3097,9 +3079,6 @@
   </si>
   <si>
     <t>Федеральное государственное бюджетное образовательное учреждение высшего образования "Ульяновский государственный технический университет"</t>
-  </si>
-  <si>
-    <t>ФГБОУ ВО «УлГТУ»</t>
   </si>
   <si>
     <t>ГП КБ "СПЕЦВУЗАВТОМАТИКА"</t>
@@ -3673,11 +3652,787 @@
   <si>
     <t xml:space="preserve"> ООО "НПФ "КРИСТАЛЛ"</t>
   </si>
+  <si>
+    <t>123557, Москва, Электрический переулок, 1.
+ info@phazotron.com
+ 8 (495) 927-07-77</t>
+  </si>
+  <si>
+    <t>phazotron.kret.com</t>
+  </si>
+  <si>
+    <t>Российская Федерация, от имени которой выступает Министерство внутренних дел Российской Федерации</t>
+  </si>
+  <si>
+    <t>Российская Федерация, от имени которой выступает Министерство связи и массовых коммуникаций Российской Федерации</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург, от имени которого выступает Комитет по информатизации и связи</t>
+  </si>
+  <si>
+    <t>Учреждение Российской академии наук Институт проблем управления им. В.А. Трапезникова РАН</t>
+  </si>
+  <si>
+    <t>Корпорация "Фазотрон - Научно-исследовательский институт радиостроения"</t>
+  </si>
+  <si>
+    <t>Открытое акционерное общество "Корпорация "Фазотрон - Научно-исследовательский институт радиостроения"</t>
+  </si>
+  <si>
+    <t>Открытое акционерное общество «Федеральная сетевая компания Единой энергетической системы»</t>
+  </si>
+  <si>
+    <t>Открытое акционерное общество научно-производственный комплекс «РУССКАЯ РАДИОЭЛЕКТРОНИКА»</t>
+  </si>
+  <si>
+    <t>АО "Фазотрон-НИИР"</t>
+  </si>
+  <si>
+    <t>Адрес: 607328, Нижегородская обл., Дивеевский р-н, п. Сатис, 
+ул. Парковая д.3
+Телефон: 8 (83130) 676-20
+Факс: 8 (83130) 676-21
+Эл. почта: info@sarov-itc.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Открытое акционерное общество «Инновационно-технологический центр «Система-Саров» </t>
+  </si>
+  <si>
+    <t>АО ИТЦ «Система-Саров»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инновационно-технологический центр «Система-Саров» </t>
+  </si>
+  <si>
+    <t>sarov-itc.ru</t>
+  </si>
+  <si>
+    <t>www.fsk-ees.ru</t>
+  </si>
+  <si>
+    <t>Юридический адрес и адрес для почтовой отправки корреспонденции: 117630, г. Москва, ул. Академика Челомея, 5А 
+Телефоны: 
+Единый информационный центр: 8-800-200-18-81 
+Факс: +7 (495) 710-96-55 
+Е-mail: info@fsk-ees.ru</t>
+  </si>
+  <si>
+    <t>Федеральная сетевая компания Единой энергетической системы</t>
+  </si>
+  <si>
+    <t>РУССКАЯ РАДИОЭЛЕКТРОНИКА</t>
+  </si>
+  <si>
+    <t>ПАО «ФСК ЕЭС»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное автономное образовательное учреждение высшего образования «Северо-Кавказский федеральный университет»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное автономное образовательное учреждение высшего профессионального образования "Белгородский государственный национальный исследовательский университет"</t>
+  </si>
+  <si>
+    <t>ОАО НПК «Русская радиоэлектроника»</t>
+  </si>
+  <si>
+    <t>Индекс: 367017
+Адрес: Г МАХАЧКАЛА,УЛ БЕЙБУЛАТОВА Д 12 
+Юридический адрес: 367000, РЕСПУБЛИКА ДАГЕСТАН, Г. МАХАЧКАЛА, УЛ БЕЙБУЛАТОВА Д 12 
+Телефон: 8 (8722) 67-38-79, 8 (988) 291-23-70</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургский национальный исследовательский университет информационных технологий, механики и оптики</t>
+  </si>
+  <si>
+    <t>Северо-Кавказский федеральный университет</t>
+  </si>
+  <si>
+    <t>Адрес:
+440000, г. Пенза, ул. Советская, д. 9
+Телефоны:
+Приемная: +7 (8412) 59-33-35
+Факс: +7 (8412) 59-33-5
+E-mail: pniei@penza.ru</t>
+  </si>
+  <si>
+    <t>пниэи.рф</t>
+  </si>
+  <si>
+    <t>Акционерное общество «Пензенский научно-исследовательский электротехнический институт»</t>
+  </si>
+  <si>
+    <t>АО «ПНИЭИ»</t>
+  </si>
+  <si>
+    <t>переименована</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО ПГУТИ</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего образования "Поволжский государственный университет телекоммуникаций и информатики"</t>
+  </si>
+  <si>
+    <t>Поволжский государственный университет телекоммуникаций и информатики</t>
+  </si>
+  <si>
+    <t>www.psuti.ru</t>
+  </si>
+  <si>
+    <t>Адрес: 443010, г. Самара, ул, Л.Толстого, д. 23.
+тел. (846) 339-11-11, email: abitur@psuti.ru</t>
+  </si>
+  <si>
+    <t>Министерство внутренних дел Российской Федерации</t>
+  </si>
+  <si>
+    <t>МВД РФ</t>
+  </si>
+  <si>
+    <t>мвд.рф</t>
+  </si>
+  <si>
+    <t>119991, г. Москва, ул. Житная, 16
+СПРАВОЧНЫЙ ТЕЛЕФОН-АВТОИНФОРМАТОР: 8 (495) 667-04-02</t>
+  </si>
+  <si>
+    <t>Министерство связи и массовых коммуникаций Российской Федерации</t>
+  </si>
+  <si>
+    <t>Комитет по информатизации и связи</t>
+  </si>
+  <si>
+    <t>Институт проблем управления им. В.А. Трапезникова РАН</t>
+  </si>
+  <si>
+    <t>Минкомсвязь России</t>
+  </si>
+  <si>
+    <t>minsvyaz.ru</t>
+  </si>
+  <si>
+    <t>Справочная: +7 495 771-80-00, 8 800 222-15-01 
+Справки по документам: +7 495 771-81-00
+Факс: +7 495 771-80-02
+Электронная почта: office@minsvyaz.ru
+Твиттер: @minsvyaz_news 
+Facebook: Minsvyaz 
+Instagram: @minsvyaz_official
+Адрес: 125375, г. Москва, ул. Тверская, д. 7</t>
+  </si>
+  <si>
+    <t>Комитет по информатизации и связи Санкт-Петербурга</t>
+  </si>
+  <si>
+    <t>kis.gov.spb.ru</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург, Смольный, 191060.
+Телефон приемной : +7 812 576 71 23
+Факс: +7 812 576 73 45
+Канцелярия : +7 812 576 44 06</t>
+  </si>
+  <si>
+    <t>ИПУ РАН
+Россия, 117997, Москва
+ул. Профсоюзная, д. 65
+Телефон: +7 495 334-89-10
+Факс: +7 495 334-93-40, +7 499 234-64-26
+E-mail: dan@ipu.ru</t>
+  </si>
+  <si>
+    <t>ИПУ РАН</t>
+  </si>
+  <si>
+    <t>www.ipu.ru</t>
+  </si>
+  <si>
+    <t>Федеральное государственное автономное научное учреждение "Центр информационных технологий и систем органов исполнительной власти" (ФГАНУ ЦИТиС) (RU)</t>
+  </si>
+  <si>
+    <t>123557, Москва, Пресненский Вал, 19, стр. 1
+Телефон канцелярии:+7 (495) 737-01-31, +7 (499) 702-81-20
+Факс:+7 (495) 737-01-50, +7 (499) 702-82-45
+E-mail канцелярии:citis@inevm.ru</t>
+  </si>
+  <si>
+    <t>Федеральное государственное автономное научное учреждение "Центр информационных технологий и систем органов исполнительной власти"</t>
+  </si>
+  <si>
+    <t>федеральное государственное автономное образовательное учреждение высшего образования «Южный федеральный университет»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное автономное образовательное учреждение высшего профессионального образования «Дальневосточный федеральный университет»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего образования "Чувашский государственный университет имени И.Н.Ульянова"</t>
+  </si>
+  <si>
+    <t>ФГАНУ ЦИТиС</t>
+  </si>
+  <si>
+    <t>Центр информационных технологий и систем органов исполнительной власти</t>
+  </si>
+  <si>
+    <t>Чувашский государственный университет имени И.Н.Ульянова</t>
+  </si>
+  <si>
+    <t>www.citis.ru</t>
+  </si>
+  <si>
+    <t>www.ifmo.ru</t>
+  </si>
+  <si>
+    <t>197101, г. Санкт-Петербург, Кронверкский проспект, д.49.
+ Общий отдел Университета ИТМО
+телефон: +7 (812) 232-97-04
+факс: +7 (812) 232-23-07</t>
+  </si>
+  <si>
+    <t>Университет ИТМО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Федеральное государственное автономное образовательное учреждение высшего образования «Санкт-Петербургский национальный исследовательский университет информационных технологий, механики и оптики» </t>
+  </si>
+  <si>
+    <t>www.ncfu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ФГАОУ ВО «Северо-Кавказский федеральный университет»
+Адрес: 355009, г. Ставрополь, ул. Пушкина, 1
+Телефон: 8 (8652) 95-68-08
+Факс: 8 (8652) 95-68-03
+E-mail: info@ncfu.ru </t>
+  </si>
+  <si>
+    <t>ФГАОУ ВО СКФУ</t>
+  </si>
+  <si>
+    <t>www.sfedu.ru</t>
+  </si>
+  <si>
+    <t>Южный Федеральный Университет</t>
+  </si>
+  <si>
+    <t>(+7 863) 218-40-00
+Почтовый адрес: 344006 г. Ростов-на-Дону, ул. Б. Садовая, 105/42
+Электронный адрес: info@sfedu.ru</t>
+  </si>
+  <si>
+    <t>оссия, 
+308015, г. Белгород, ул. Победы, 85, 
+Тел: (4722) 30-12-11 
+Факс: (4722) 30-10-12, (4722) 30-12-13</t>
+  </si>
+  <si>
+    <t>НИУ БелГУ</t>
+  </si>
+  <si>
+    <t>Алтайский государственный университет</t>
+  </si>
+  <si>
+    <t>www.dvfu.ru</t>
+  </si>
+  <si>
+    <t>Дальневосточный федеральный университе</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования "Воронежский государственный университет"</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Алтайский государственный университет»</t>
+  </si>
+  <si>
+    <t>ФГАОУ ВО ДВФУ</t>
+  </si>
+  <si>
+    <t>Почтовый адрес ДВФУ: Россия, 690091, г. Владивосток, ул. Суханова, 8.
+Место нахождения Университета: г. Владивосток о. Русский, поселок Аякс - 10, кампус ДВФУ.
+Телефон: (423) 265-24-29;  (423) 243-34-72, факс (423) 243-23-15
+E-mail: rectorat@dvfu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адрес университета: 428015, Россия, Чувашская Республика, город Чебоксары, Московский проспект, д. 15. Телефон: (8352) 58-30-36, 45-23-39 доп.37-50. </t>
+  </si>
+  <si>
+    <t>www.chuvsu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ФГБОУ ВО «ЧГУ им. И.Н. Ульянова»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Федеральное государственное бюджетное образовательное учреждение высшего образования «Пензенский государственный университет» </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пензенский государственный университет» </t>
+  </si>
+  <si>
+    <t>www.pnzgu.ru</t>
+  </si>
+  <si>
+    <t>Юридический адрес образовательной организации: 440026 г. Пенза, ул. Красная, 40 
+Контактная информация:
+Тел: (8412) 56-35-11 (приемная)
+e-mail: rector@pnzgu.ru</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО ПГУ</t>
+  </si>
+  <si>
+    <t>www.herzen.spb.ru</t>
+  </si>
+  <si>
+    <t>Российский государственный педагогический университет им. А.И. Герцена</t>
+  </si>
+  <si>
+    <t>Ижевский государственный технический университет имени М.Т. Калашникова</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего образования «Российский государственный педагогический университет им. А. И. Герцена»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Ижевский государственный технический университет имени М.Т. Калашникова»</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО РГПУ им. А.И. Герцена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191186, Санкт-Петербург, набережная реки Мойки, д.48.
+Телефон: (812) 312-44-92
+Факс: (812) 312-11-95
+E mail: mail@herzen.spb.ru </t>
+  </si>
+  <si>
+    <t>ФГБУ ВПО ВГУ</t>
+  </si>
+  <si>
+    <t>Воронежский государственный университет</t>
+  </si>
+  <si>
+    <t>Московский государственный лингвистический университет</t>
+  </si>
+  <si>
+    <t>www.vsu.ru</t>
+  </si>
+  <si>
+    <t>Адрес
+394018, Россия, г. Воронеж, Университетская площадь, 1
+Телефон
++7 (473) 220-75-21
+Телеграф
+Россия, Воронеж, 22
+Факс
++7 (473) 220-87-55
+E-mail
+office@main.vsu.ru</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Сибирский государственный аэрокосмический университет имени академика М.Ф. Решетнева»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное учреждение науки Санкт-Петербургский институт информатики и автоматизации Российской академии наук</t>
+  </si>
+  <si>
+    <t>Владивостокский государственный университет экономики и сервиса</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургский государственный университет</t>
+  </si>
+  <si>
+    <t>Сибирский государственный аэрокосмический университет имени академика М.Ф. Решетнева</t>
+  </si>
+  <si>
+    <t>Хакасский государственный университет им. Н.Ф. Катанова</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО АлтГУ</t>
+  </si>
+  <si>
+    <t>www.asu.ru</t>
+  </si>
+  <si>
+    <t>Юридический адрес: 656049, Барнаул, пр. Ленина, 61
+Тел.: (385-2) 291-291
+Факс: (385-2) 667-626
+E-mail: rector@asu.ru
+Сайт: www.asu.ru</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Владивостокский государственный университет экономики и сервиса»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Московский государственный лингвистический университет»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Санкт-Петербургский государственный университет»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное учреждение науки Институт проблем управления им. В.А. Трапезникова Российской академии наук</t>
+  </si>
+  <si>
+    <t>www.vvsu.ru</t>
+  </si>
+  <si>
+    <t>Адрес: 690014, г. Владивосток, ул. Гоголя, 41
+Телефон приемной ректората: +7 423 240-42-89
+Телефон помощника ректора: +7 423 240-40-00
+E-mail: rector@vvsu.ru</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО ВГУЭС</t>
+  </si>
+  <si>
+    <t>www.istu.ru</t>
+  </si>
+  <si>
+    <t>Контакты
+Адрес: 426069, Удмуртская Республика, г. Ижевск, ул. Студенческая, д. 7
+Единый многоканальный телефон:
+(3412) 77-60-55
+Факс: (3412) 50-40-55
+Эл. почта: info@istu.ru</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВПО МГЛУ</t>
+  </si>
+  <si>
+    <t>Место нахождения вуза: 119034, г. Москва, Остоженка 38, стр. 1
+Справочный телефон: 8-495-6375597 
+Факс: 8 (499) 245-19-90  
+Электронная почта: info@linguanet.ru</t>
+  </si>
+  <si>
+    <t>www.linguanet.ru</t>
+  </si>
+  <si>
+    <t>spbu.ru</t>
+  </si>
+  <si>
+    <t>199034, Россия, Санкт-Петербург, Университетская наб., д. 7–9
+Тел: +7 (812) 328–20–00
+Эл. почта: spbu@spbu.ru
+Cайт: http://spbu.ru</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВПО СПбГУ</t>
+  </si>
+  <si>
+    <t>www.sibsau.ru</t>
+  </si>
+  <si>
+    <t>660037, Сибирский федеральный округ, Красноярский край, город Красноярск, проспект им. газеты Красноярский рабочий, дом 31
+тел.: 8 (391) 264-00-14 - приемная ректора
+факс: 8 (391) 264-47-09
+e-mail: info@sibsau.ru</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВПО СибГУ им. М.Ф. Решетнева</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВПО "ИжГТУ имени М.Т. Калашникова"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Хакасский государственный университет им. Н.Ф. Катанова» </t>
+  </si>
+  <si>
+    <t>Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-морского Флота "Военно-морская академия имени адмирала флота Советского Союза Н.Г. Кузнецова"</t>
+  </si>
+  <si>
+    <t>Федеральное государственное казенное образовательное учреждение высшего профессионального образования «Воронежский институт Министерства внутренних дел Российской Федерации»</t>
+  </si>
+  <si>
+    <t>www.khsu.ru</t>
+  </si>
+  <si>
+    <t>655000, Республика Хакасия, г. Абакан, ул. Ленина, 90;
+Телефоны: +7(3902)243018, +7(3902)243364 
+Факс: +7(3902)243364
+Электронная почта:  univer@khsu.ru ,  rektor@khsu.ru</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО ХГУ им. Н.Ф. Катанова</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Институт проблем управления им. В.А. Трапезникова Российской академии наук</t>
+  </si>
+  <si>
+    <t>Санкт-Петербургский институт информатики и автоматизации Российской академии наук</t>
+  </si>
+  <si>
+    <t>Россия, 117997, Москва
+ул. Профсоюзная, д. 65
+Телефон: +7 495 334-89-10
+Факс: +7 495 334-93-40, +7 499 234-64-26
+E-mail: dan@ipu.ru</t>
+  </si>
+  <si>
+    <t>ФГБУН ИПУ РАН</t>
+  </si>
+  <si>
+    <t>Федеральное государственное научное учреждение научно-исследовательский институт "Специализированные вычислительные устройства защиты и автоматика"</t>
+  </si>
+  <si>
+    <t>Федеральное государственное научное учреждение научно-исследовательский институт "Специализированный вычислительные устройства защиты и автоматика"</t>
+  </si>
+  <si>
+    <t>www.spiiras.nw.ru</t>
+  </si>
+  <si>
+    <t>АДРЕС
+199178, Россия, Санкт-Петербург,
+14 линия, дом 39
+ТЕЛЕФОН
++7-(812)-328-34-11
+ФАКС
++7-(812)-328-44-50
+ЭЛЕКТРОННАЯ ПОЧТА
+spiiran@iias.spb.su</t>
+  </si>
+  <si>
+    <t>ФГБУН СПИИРАН</t>
+  </si>
+  <si>
+    <t>Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-воздушных сил "Военно-воздушная академия имени профессора Н.Е. Жуковского и Ю.А. Гагарина" Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>394064, г. Воронеж, ул. Старых Большевиков, 54 «А»
+8 (473) 226-47-52 - факс
+8 (473) 244-76-04 - факс
+E-mail:  vaiu@mil.ru</t>
+  </si>
+  <si>
+    <t>академия-ввс.рф</t>
+  </si>
+  <si>
+    <t>Военный учебно-научный центр Военно-воздушных сил "Военно-воздушная академия имени профессора Н.Е. Жуковского и Ю.А. Гагарина" Министерства обороны Российской Федерации</t>
+  </si>
+  <si>
+    <t>ВУНЦ ВВС ВВА</t>
+  </si>
+  <si>
+    <t>Военный учебно-научный центр Военно-морского Флота Военно-морская академия имени адмирала флота Советского Союза Н.Г. Кузнецова"</t>
+  </si>
+  <si>
+    <t>vma.mil.ru</t>
+  </si>
+  <si>
+    <t>Адрес: 197045, г. Санкт-Петербург, Ушаковская набережная, д. 17/1
+Телефоны: 8 (812) 496-16-18(дежурный); 8 (812) 431-92-44, 430-66-24 (приёмная начальника)
+Email: vunc-vmf@mil.ru</t>
+  </si>
+  <si>
+    <t>ВУНЦ ВМФ Военно-морская академия</t>
+  </si>
+  <si>
+    <t>Воронежский институт Министерства внутренних дел Российской Федерации</t>
+  </si>
+  <si>
+    <t>www.vimvd.ru</t>
+  </si>
+  <si>
+    <t>телефон +7 (473) 247-67-07
+vrnin@mvd.ru
+394065, г. Воронеж, пр-т Патриотов, 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ФГКОУ ВПО "Воронежский институт МВД России"</t>
+  </si>
+  <si>
+    <t>Специализированные вычислительные устройства защиты и автоматика</t>
+  </si>
+  <si>
+    <t>Специализированный вычислительные устройства защиты и автоматика</t>
+  </si>
+  <si>
+    <t>ФГАНУ НИИ "Спецвузавтоматика"</t>
+  </si>
+  <si>
+    <t>344011, г. Ростов-на-Дону, ул. Города Волос, д. 6, а/я 488;
+тел./факс +7 (863) 201-28-17 (г. Ростов-на-Дону)
+тел. +7 (495) 705-93-21 (г. Москва)
+тел.:+7(960) 467-08-80, +7(906)-180-02-66
+info@niisva.org</t>
+  </si>
+  <si>
+    <t>www.niisva.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ленинградский отраслевой научно-исследовательский институт связи</t>
+  </si>
+  <si>
+    <t>96128, Россия, Санкт-Петербург, ул. Варшавская, 11.
+тел.: (812) 369-38-67
+факс: (812) 369-38-78
+e-mail: info@loniis.ru</t>
+  </si>
+  <si>
+    <t>loniis.ru</t>
+  </si>
+  <si>
+    <t>ФГУП ЛО ЦНИИС</t>
+  </si>
+  <si>
+    <t>Общество с ограниченной ответственностью "Цифрасофт"</t>
+  </si>
+  <si>
+    <t>Цифрасофт</t>
+  </si>
+  <si>
+    <t>ООО "Цифрасофт"</t>
+  </si>
+  <si>
+    <t>cifrasoft.ru</t>
+  </si>
+  <si>
+    <t>426011,Удмуртская Респ,Ижевск г,Родниковая ул,58
+Address: 70, Rodnikovaya st., Izhevsk, Russia, 426000
+ Phone: +7(3412) 600526
+ Email: info@cifrasoft.com</t>
+  </si>
+  <si>
+    <t>as_is</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Asahi Kasei Corporation</t>
+  </si>
+  <si>
+    <t>Федеральное государственное казенное образовательное учреждение высшего профессионального образования "Академия Федеральной службы охраны Российской Федерации"</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО ВГТУ</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО РГРТУ</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО УлГТУ</t>
+  </si>
+  <si>
+    <t>IBM Corp.</t>
+  </si>
+  <si>
+    <t>Microsoft Corp.</t>
+  </si>
+  <si>
+    <t>Microsoft Technology Licensin Llc</t>
+  </si>
+  <si>
+    <t>Nokia Corp.</t>
+  </si>
+  <si>
+    <t>МГТУ им. Баумана</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего образования "Московский государственный технический университет имени Н.Э. Баумана"</t>
+  </si>
+  <si>
+    <t>Московский государственный технический университет имени Н.Э. Баумана</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО МГТУ им.  Н.Э. Баумана</t>
+  </si>
+  <si>
+    <t>www.bmstu.ru</t>
+  </si>
+  <si>
+    <t>г. Москва, 2-я Бауманская ул., д. 5, стр. 1
+Почтовый индекс: 105005
+Тел.: (499) 263 63 91
+Факс: (499) 267 48 44
+E-mail: bauman@bmstu.ru</t>
+  </si>
+  <si>
+    <t>Вычислительный центр им. А.А. Дородницына Российской академии наук</t>
+  </si>
+  <si>
+    <t>www.ccas.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адрес: 119333, Москва, ул. Вавилова, 40, 
+Телефон: 8-499-135-04-40 
+Факс:   8-499-135-61-59 
+Электронная почта:wcan@ccas.ru 
+</t>
+  </si>
+  <si>
+    <t>Государственный университет морского и речного флота им. адмирала С.О. Макарова</t>
+  </si>
+  <si>
+    <t>Адрес Университета: 198035, г. Санкт-Петербург, ул. Двинская, 5/7
+тел. 748-96-92 
+тел. 748-96-93
+E-mail: otd_o@gumrf.ru</t>
+  </si>
+  <si>
+    <t>gumrf.ru</t>
+  </si>
+  <si>
+    <t>ФГБОУ ВО «ГУМРФ имени адмирала С.О. Макарова»</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное образовательное учреждение высшего образования «Государственный университет морского и речного флота имени адмирала С.О. Макарова»</t>
+  </si>
+  <si>
+    <t>Государственный университет морского и речного флота имени адмирала С.О. Макарова</t>
+  </si>
+  <si>
+    <t>Институт проблем передачи информации  им. А.А.Харкевича  Российской академии наук</t>
+  </si>
+  <si>
+    <t>ИППИ РАН</t>
+  </si>
+  <si>
+    <t>www.iitp.ru</t>
+  </si>
+  <si>
+    <t>Федеральное государственное бюджетное учреждение науки институт проблем передачи информации  им. А.А.Харкевича  Российской академии наук</t>
+  </si>
+  <si>
+    <t>входит в состав Федерального исследовательского центра «Информатика и управление» на базе Института проблем информатики РАН</t>
+  </si>
+  <si>
+    <t>Вычислительный центр им. А.А. Дородницына Российской академии наук Федерального исследовательского центра «Информатика и управление» Российской академии наук</t>
+  </si>
+  <si>
+    <t>ВЦ ФИЦ ИУ РАН</t>
+  </si>
+  <si>
+    <t>127051, МОСКВА Г, КАРЕТНЫЙ Б. ПЕР, ДОМ 19, СТРОЕНИЕ 1
+Телефон: 8 (495) 650-42-25
+Факс: 650-05-79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Московский энергетический институт : Институт автоматики и вычислительной техники [АВТИ] </t>
+  </si>
+  <si>
+    <t>avti.mpei.ru</t>
+  </si>
+  <si>
+    <t>Институт автоматики и вычислительной техники НИУ МЭИ</t>
+  </si>
+  <si>
+    <t>АВТИ НИУ МЭИ</t>
+  </si>
+  <si>
+    <t>Адрес: 111250, Россия, г. Москва,
+Красноказарменная улица, дом 14
+Справочная МЭИ: +7 495 362-75-60
+Email: universe@mpei.ac.ru</t>
+  </si>
+  <si>
+    <t>входит в состав федерального  государственного бюджетного образовательного учреждения высшего образования «Национальный исследовательский университет « МЭИ»</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="000000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3750,7 +4505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3772,10 +4527,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -3894,9 +4652,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3934,7 +4692,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4006,7 +4764,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19818,11 +20576,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19834,11 +20591,16 @@
     <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.140625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="58.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="58.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="58.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="153.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1267</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>782</v>
       </c>
@@ -19849,7 +20611,7 @@
         <v>784</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>785</v>
@@ -19857,17 +20619,17 @@
       <c r="G1" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>787</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="J1" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>769</v>
       </c>
@@ -19878,7 +20640,7 @@
         <v>792</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>791</v>
@@ -19887,10 +20649,22 @@
         <v>788</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" s="2" t="str">
+        <f>IF(J2&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B2&amp;"',"&amp;"'"&amp;D2&amp;"',"&amp;"'"&amp;F2&amp;"',"&amp;"'"&amp;G2&amp;"',"&amp;"'"&amp;H2&amp;"',"&amp;"'"&amp;I2&amp;"'"&amp;");")</f>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Advanced Generation Interface Japan, Inc.','AGI Inc.','Япония','http://www.agi-web.co.jp/english/about.html','Head Office 6-3-13-4F, Akasaka, Minato-ku, Tokyo 107-0052, Japan
+Tel: +81-3-5575-1457
+Fax: +81-3-3568-2007
+Mail: information@agi-web.co.jp','переименована');</v>
+      </c>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>767</v>
       </c>
@@ -19910,266 +20684,370 @@
         <v>788</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f t="shared" ref="K3:K66" si="0">IF(J3&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B3&amp;"',"&amp;"'"&amp;D3&amp;"',"&amp;"'"&amp;F3&amp;"',"&amp;"'"&amp;G3&amp;"',"&amp;"'"&amp;H3&amp;"',"&amp;"'"&amp;I3&amp;"'"&amp;");")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>330</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J4"/>
+      <c r="K4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('AliphCom dba Jawbone (the "Company") ','AliphCom','США','www.jawbone.com','Address:
+99 Rhode Island Street
+Floor 3rd
+San Francisco, CA 94103
+United States
+Phone: 1-415-230-7600
+Fax: -
+Web url: www.jawbone.com','');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>371</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>803</v>
+        <v>1269</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>791</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Asahi Kasei Kabushiki kaisha, engl. Asahi Kasei Corporation','Asahi Kasei Corporation','Япония','http://www.asahi-kasei.co.jp/asahi/en/','Head Office:
+Asahi Kasei Corporation
+1-105 Kanda Jinbocho, Chiyoda-ku, Tokyo 101-8101 Japan
+Phone: +81-(0)3-3296-3000','');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="J6"/>
+      <c r="K6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Voice-Insight SA','Voice-Insight SA','Бельгия','н/д','Eebic Building - 40, avenue J. Wybranlaan
+1070 Brussels, Belgium
+Belgien
+Phone: 
+   02 529 58 12
+Email: 
+   info@voice-insight.com','');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>914</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Войсковая часть 61469 -ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "ГОСУДАРСТВЕННЫЙ ИНСТИТУТ ТЕХНОЛОГИИ ОРГАНИЧЕСКОГО СИНТЕЗА С ОПЫТНЫМ ЗАВОДОМ"','ФГУП ГИТОС','Россия','н/д','Адрес организации 412680, Россия, Саратовская обл., Саратовская область, Вольский район, Зато Шиханы
+Телефон 4-68-94; 3-05-36; (84593) 3-05-34; 3-40-17; 3-40-18
+Факс 3-40-17','');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>927</v>
+        <v>1270</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>924</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J8"/>
+      <c r="K8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное казенное образовательное учреждение высшего профессионального образования "Академия Федеральной службы охраны Российской Федерации"','Академия ФСО России','Россия','academ.msk.rsnet.ru','Юридический адрес
+302034, г. Орёл, ул. Приборостроительная, д. 35
+Телефоны
+(4862) 54-97-63, 54-97-64, 54-97-66 – учебный отдел, (4862) 54-97-83 – отдел кадров
+Факс
+(4862) 54-95-27','');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>939</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>937</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>932</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Государственное научное бюджетное учреждение «Академия наук Республики Татарстан»','ГНБУ Академия наук РТ','Россия','www.antat.ru','420111, г. Казань, ул.Баумана, 20, e-mail: anrt@antat.ru телефон приемной: (843) 292-40-34, факс: (843) 292-07-62','');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>943</v>
+        <v>1271</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>937</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования «Воронежский государственный технический университет»','ФГБОУ ВО ВГТУ','Россия','www.vorstu.ru','394026 г. Воронеж, 
+Московский проспект, 14, 
+учебный корпус N1
+394006 г. Воронеж, 
+ул. 20-лет Октября, д. 84, 
+учебный корпус N1
+E-mail:rector@vorstu.ru  rector@vgasu.vrn.ru','');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G11" t="s">
+        <v>942</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>947</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>952</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего образования "Казанский (Приволжский) федеральный университет"','ФГАОУ ВО КФУ','Россия','kpfu.ru','Телефон справочной: +7 (843) 233-71-09.
+Адрес электронной почты: public.mail@kpfu.ru
+420008, Россия, РТ, г. Казань, ул. Кремлевская, д.18.','Переименован');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>747</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>954</v>
+        <v>1272</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>956</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Рязанский государственный радиотехнический университет"','ФГБОУ ВО РГРТУ','Россия','www.rsreu.ru','Юридический адрес:
+390005, г. Рязань, ул. Гагарина, 59/1','');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>744</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>960</v>
+        <v>1273</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Ульяновский государственный технический университет"','ФГБОУ ВО УлГТУ','Россия','www.ulstu.ru','Россия, 432027, г. Ульяновск, ул. Северный Венец, д. 32
++7 (8422) 43-02-37 
+rector@ulstu.ru','');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>924</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>928</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>377</v>
       </c>
@@ -20177,840 +21055,1172 @@
         <v>377</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>963</v>
+        <v>915</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>956</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Государственное предприятие Конструкторское бюро "Спецвузавтоматика"','ГП КБ "СПЕЦВУЗАВТОМАТИКА"','Россия','н/д','г.Ростов-на-Дону, пер.Газетный, д.51, 344002
+(8632)932894','Ликвидировано');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>764</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>967</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>961</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего образования «Белгородский государственный национальный исследовательский университет» ',' ФГАОУ ВО НИУ «БелГУ»','Россия','www.bsu.edu.ru','Россия, 308015, Белгородская область, г. Белгород, ул. Победы, д. 85 
+Тел: (4722) 30-12-11 
+Факс: (4722) 30-10-12, (4722) 30-12-13
+E-mail: Info@bsu.edu.ru','');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>316</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J17"/>
+      <c r="K17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Google Inc.','Google Inc.','США','http://google.com','1600 Amphitheatre Parkway
+Mountain View, CA 94043
+USA
+Москва
+ул. Балчуг, 7
+Москва, 115035
+Россия
+Телефон: +7-495-644-1400','');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>323</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J18"/>
+      <c r="K18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Dts Licensing Ltd','Dts Licensing Ltd','Ирландия','www.dts.com','Address:
+Hamilton House 2
+National Technology Park
+Limerick
+Ireland
+Phone: 353-61-507-272
+Fax: 353-61-507-279
+Web url: www.dts.com','');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>312</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>823</v>
-      </c>
       <c r="G19" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J19"/>
+      <c r="K19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Deutsche Telekom AG','Deutsche Telekom','Германия','www.telekom.com/en','Friedrich-Ebert-Allee 140
+53113 Bonn
+Germany','');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>756</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J20"/>
+      <c r="K20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Dolby International AB','Dolby International AB','Нидерланды','www.dolby.com','Atlas Complex, Africa Building, Hoogoorddreef 9
+NL-1101 BA Amsterdam
+Netherlands
+Тел.: +3120 312 0517
+Факс: +31 20 312 0444','');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>755</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="J21"/>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES(' Dolby Laboratories Licensing Corporation',' Dolby Laboratories Licensing Corporation','США','www.dolby.com','100 Potrero Avenue
+San Francisco, CA 94103-4813
+United States
+Phone:
+415-558-0200
+Fax:
+415-863-1373','');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>962</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответсвенностью "ИстраСофт"','ООО "ИстраСофт"','Россия','www.istrasoft.ru','Телефон: +7 (929) 641-1802. e-mail: support@istrasoft.com
+Юридический адрес: 143500, Московская обл., г. Истра, ул. Шнырева, 4-105
+Почтовый адрес: 127521, г. Москва, 17-й проезд Марьиной Рощи, дом 2 (КД НЭФ, с пометкой "для ООО ИстраСофт")
+Фактический адрес: 127521, г. Москва, 17-й проезд Марьиной Рощи, дом 2.','Переименовано');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>962</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="K23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>968</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Закрытое акционерное общество «ΑΡΜΟ» ','ЗАО "АРМО"','Россия','armo.ru','г. Москва, Ленинградский проспект, д. 37А, корп. 14, БЦ "АРКУС-II"
++7 495 787-33-36
++7 495 787-33-42
+armo@armo.ru','');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>980</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="J25"/>
+      <c r="K25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Закрытое акционерное общество «ИнтэлЛекс»','ЗАО «ИнтэлЛекс»','Россия','www.intellex.ru','107140, Москва, ул. Верхняя Красносельская, д.3, стр.5
+Телефоны:
+Общий:
++7 (499) 929-83-71
+Технологи:
++7 (499) 262-52-32
++7 (499) 262-54-07
+Факс:
++7 (499) 929-00-25
+Электронная почта:
+По любым вопросам: pr@intellex.ru','');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>962</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>977</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('ЗАО «НТЦ Передовые Системы»','ЗАО «НТЦ Передовые Системы»','Россия','forsys.ru','107258 г. Москва, ул.Глебовская, дом 20Б
+Е-mail: info@forsys.ru','');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>962</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>347</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>834</v>
-      </c>
       <c r="H29" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+      <c r="J29"/>
+      <c r="K29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Zero to One technology','Zero to One technology','Франция','http://zto-technology.com','Zero to One technology
++33 2 50 01 15 17
+2, rue Jean Perrin - Campus Effiscience
+14460 COLOMBELLES
+FRANCE
+Zero to One technology Canada Inc.
+1 Place Ville Marie, bureau 2001
+MONTRÉAL (QC) H3B 2C4
+CANADA','');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>987</v>
+        <v>835</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>980</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('ЗАО "Интел А\О"','ЗАО "Интел А\О"','Россия','www.intel.com',' 121614, МОСКВА, КРЫЛАТСКАЯ УЛ., 17, К. 4
+495) 6414510 , (495) 6414500 , (495) 6414510 ','Переименовано');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>839</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J31"/>
+      <c r="K31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Intel Corp.','Intel Corp.','США','www.intel.com','Корпоративный почтовый адрес
+2200 Mission College Blvd.
+Santa Clara, CA 95054-1549
+USA (США)
+(408) 765-8080','');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>352</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J32"/>
+      <c r="K32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('International Business Machines Corporation','IBM Corp.','США','www.ibm.com','1 New Orchard Road
+Armonk, NY 10504
+United States
+Phone:
+914-499-1900
+www.ibm.com','');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>751</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J33"/>
+      <c r="K33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Qualcomm Inc.','Qualcomm Inc.','США','www.qualcomm.com','Headquarters
+5775 Morehouse Drive
+San Diego, CA 92121
+USA
+(858) 587-1121','');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>324</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J34"/>
+      <c r="K34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Koninklijke Philips N.V.','Philips','Нидерланды','www.philips.com','123022 г. Москва, ул. Сергея Макеева, 13
+ +7 495 937 9300 
+Факс: +7 495 937 93 07 
+Breitner Center
+Amstelplein 2
+Amsterdam,  1096 BC
+Netherlands','');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>774</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>851</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>854</v>
+        <v>874</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>1044</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Корпорация С1','Корпорация С1','КНДР','н/д','н/д','');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>325</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J36"/>
+      <c r="K36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Creative Technology Ltd.','Creative Technology Ltd.','Сингапур','www.creative.com','Creative Technology Ltd
+31 International Business Park
+#03-01, Lobby C, Creative Resource
+Singapore 609921
+Tel: +65 6895 4000
+Fax: +65 6895 4999
+Website: http://creative.com','');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>864</v>
+        <v>1275</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="J37"/>
+      <c r="K37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Microsoft Corporation','Microsoft Corp.','США','www.microsoft.com','One Microsoft Way
+Redmond, WA 98052
+United States
+Phone:
+425-882-8080
+Fax:
+425-706-7329
+121614, Россия г. Москва, Крылатская улица, д. 17/1
+Тел.: +7 (495) 967-85-85
+Факс: +7 (495) 967-85-00','');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>334</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>867</v>
+        <v>1276</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="J38"/>
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Microsoft Technology Licensing, Llc','Microsoft Technology Licensin Llc','США','www.microsoft.com','One Microsoft Way
+Redmond, WA 98052
+United States
+Phone:
+425-882-8080
+Fax:
+425-706-7329
+121614, Россия г. Москва, Крылатская улица, д. 17/1
+Тел.: +7 (495) 967-85-85
+Факс: +7 (495) 967-85-00','');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>300</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>871</v>
+        <v>1277</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Nokia Corporation','Nokia Corp.','Финляндия','www.nokia.com','Nokia head office
+Tel. +358 10 44 88 000
+Fax. +358 10 44 81 002 
+Visiting address:
+Karaportti 3
+02610 Espoo, Finland
+Postal address
+P.O.Box 226, FI-00045 Nokia Group','');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>759</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>871</v>
+      </c>
+      <c r="J40"/>
+      <c r="K40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Nokia Technologies Oy','Nokia Technologies Oy','Финляндия','www.nokia.com','PL 226 (Karaportti 3)
+00045
+NOKIA GROUP
+010 4488 000
+010 4481 002','');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>926</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>981</v>
+      </c>
+      <c r="J41"/>
+      <c r="K41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "АСМ Решения"','ООО "АСM Решения"','Россия','н/д','105203, город Москва, улица Первомайская Нижн., дом 48/9','');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>926</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>988</v>
+        <v>915</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>981</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>762</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="J43"/>
+      <c r="K43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "ДЖЕНТ КЛАБ"','ООО "ДЖЕНТ КЛАБ"','Россия','н/д','109451, Москва, улица Братиславская, д. 21, оф. СЕКЦИЯ 1','');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>770</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>974</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>962</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="226.5" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="J45"/>
+      <c r="K45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('ООО "Полигон Интегрейшн Украина" ','ООО "Полигон Интегрейшн Украина" ','Украина','н/д','Адрес: 01601, Киев, бул. Леси Украинки 34, оф. 218
+Телефон: +38 /044/ 502-01-14
+info@polygon-ukraine.com','');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="226.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>758</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>1019</v>
+        <v>915</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>1012</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>1013</v>
+      </c>
+      <c r="J46"/>
+      <c r="K46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "Спиктуит"','ООО "Спиктуит"','Россия','н/д','Юридический адрес: 115280, МОСКВА Г, ЛЕНИНСКАЯ СЛОБОДА УЛ, ДОМ 19, ЭТАЖ 3,КОМНАТА 21З-1Б','Принято решение о ликвидации и назначении ликвидатора (дата внесения записи в ЕГРЮЛ: 19.04.2017)
+Учредитель Speaktoit LLC
+Api.ai was formerly known as Speaktoit LLC. The company was founded in 2010 and is based in Palo Alto, California. As of September 19, 2016, Api.ai operates as a subsidiary of Google Inc.
+Speaktoit LLC
+443 Waverley Street
+Palo Alto, CA 94301
+United States
+Phone:
+650-561-3876
+api.ai
+API.AI is now Dialogflow:   dialogflow.com');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G47" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>1022</v>
+        <v>1014</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>1015</v>
       </c>
       <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "Стэл ЮГ"','ООО "Стэл ЮГ"','Россия','ug.stel.ru','Адрес: 344002,
+Россия, г. Ростов-на-Дону,
+ул. Нижнедонская, д. 9, этаж 3, офис 302
+Телефон: +7 (863) 219-15-51
+Факс: +7 (863) 219-15-51
+E-mail: ug@stel.ru','');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G48" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>1022</v>
+        <v>1014</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>1015</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="K48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>760</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1019</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J49"/>
+      <c r="K49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "Стэл-Компьютерные Системы"','ООО "Стэл КС" ','Россия','http://www.stel.ru','Адрес:  105082, Москва, ул. Большая Почтовая, д.55/59
+Телефон:  +7 (495) 77-55-123, 77-55-122
+E-mail:  stel@stel.ru','');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "ТвелвТек"','ООО "ТвелвТек"','Россия','н/д','г.Самара, пр-кт.Волжский, д.35, кв.9, 443071','');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>368</v>
       </c>
@@ -21018,22 +22228,31 @@
         <v>368</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "Центр речевых технологий"','ООО "Центр речевых технологий"','Россия','www.speechpro.ru','Адрес: 196084, Санкт-Петербург, ул. Красуцкого, 4
+Почтовый адрес:196084, Санкт-Петербург, а/я 124 «Центр речевых технологий»
+Телефон:+7 (812) 325-88-48
+E-mail:stc-spb@speechpro.com
+Факс:+7 (812) 327-92-97','');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>748</v>
       </c>
@@ -21041,25 +22260,29 @@
         <v>368</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>1045</v>
+        <v>1037</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>1038</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>306</v>
       </c>
@@ -21067,387 +22290,544 @@
         <v>368</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>1045</v>
+        <v>1037</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>1038</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "Цифрасофт"','ООО "Цифрасофт"','Россия','cifrasoft.ru','426011,Удмуртская Респ,Ижевск г,Родниковая ул,58
+Address: 70, Rodnikovaya st., Izhevsk, Russia, 426000
+ Phone: +7(3412) 600526
+ Email: info@cifrasoft.com','');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>745</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>1037</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J55"/>
+      <c r="K55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "ЦРТ-инновации"','ООО "ЦРТ-инновации"','Россия','www.speechpro.ru','Адрес: 196084, Санкт-Петербург, ул. Красуцкого, 4
+Почтовый адрес:196084, Санкт-Петербург, а/я 124 «Центр речевых технологий»
+Телефон:+7 (812) 325-88-48
+E-mail:stc-spb@speechpro.com
+Факс:+7 (812) 327-92-97','');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J56"/>
+      <c r="K56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "Эффективная энергетика"','ООО "Эффективная энергетика"','Россия','н/д','н/д','');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J57"/>
+      <c r="K57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "Яндекс"','ООО "Яндекс"','Россия','yandex.ru','Адрес
+119021, Москва, ул. Льва Толстого, 16
+тел.: +7 495 739-70-00, 
+8 800 250-96-39, 8 800 250-YNDX 
+ +7 495 974-35-81
+факс: +7 495 739-70-70
+Отдел по связям с общественностью 
+pr@yandex-team.ru
+Помощь по проектам Яндекса и обращение к службе поддержки 
+yandex.ru/support','');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>1056</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Бэнкс Софт Системс»','ООО «БCC»','Россия','www.bssys.com','Адрес: 117105, г. Москва, Нагорный проезд, д. 5
+Телефон/факс: +7 (495) 785-0494
+E-mail: root@bssys.com
+www.bssys.com','');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Войс Коммьюникэйшн»','ООО "Войс Коммьюникэйшн"','Россия','н/д','г. Москва , пер. Кожевнический 1-й, д.10, оф.3, 115114. ','');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>1060</v>
+        <v>1044</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>1053</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Воколайз»','ООО "Воколайз"','Россия','н/д','119048, г МОСКВА 77, пер УЧЕБНЫЙ, ДОМ 2 
+45000000 8-499-1324971 
+info@vocalize.ru 
+','ЗАКУПКА №0273100000117000021 Приобретение лицензионного программного обеспечения, обеспечивающего аудиосопровождение текстовых материалов подсистемы "Официальный сайт ПФР" (2017 год)');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>1065</v>
+        <v>1059</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>1058</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Диктум»','ООО "Диктум"','Россия','www.dictum.ru','603000, Россия, Нижегородская обл.,
+г. Нижний Новгород, ул.Короленко 19Б, оф. 115
+Тел: +7 (831) 202-16-04
+Факс: +7 (831) 202-16-05
+E-mail: info@dictum.ru','Учредители:
+44.1% Ермаков Владимир Викторович 
+24.3% Ашманов Игорь Станиславович 
+21.6% ЗАКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "АШМАНОВ И ПАРТНЕРЫ" 
+10% ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНФОВОТЧ ГРУПП" ');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J62"/>
+      <c r="K62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «ДСС Лаб» ','OOO "ДСС Лаб"','Россия','dss-lab.ru','Телефон: +7 (495) 645-44-70
+E-mail: info@3itech.ru
+Адрес: 129343, Москва, проезд Серебрякова, д. 14, стр. 9, офис 11, Бизнес-центр “Silver Stone”','');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G63" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1065</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «КРУСТ»','ООО "КРУСТ"','Россия','krust-rus.com','г. Екатеринбург, ул. Луначарского, 221
+тел. (факс):  (343) 286-61-43, 286-54-20
+E-mail: info@krust-rus.com','');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Милки Бразерс Груп» ','ООО "Милки Бразерс Груп"','Россия','н/д','143441, Московская область, Красногорский район, п//о Путилково, д Путилково, 69 км МКАД, Офисно-общественный комплекс ЗАО "Гринвуд", стр 1 
+Телефон(ы): +7 (903) 798-99-87','');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+        <v>1044</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Проект - Профессиональные Инновационные Решения»','ООО "ПРОЕКТ-ПИР"','Россия','н/д','117105, г Москва, пр Нагорный, д 5 
+Телефон (495) 785-04-99
+Факс (495) 785-04-99','');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1082</v>
+        <v>1075</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>1080</v>
+        <v>1076</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>1073</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Спич Драйв»','ООО "Спич Драйв"','Россия','www.speech-drive.ru','199155, г. Санкт-Петербург, ул. Железноводская, д. 40 кв. 55','Смирнов Валентин Александров - 
+ген. директор в составе Государственной экзаменационной комиссии по основной образовательной программе высшего образования ВМ.5626.* «Прикладная и экспериментальная лингвистика» по направлению подготовки 45.04.02 «Лингвистика», по уровню магистратура на 2017 год:в  Санкт-Петербургском государственном университете');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J67"/>
+      <c r="K67" s="2" t="str">
+        <f t="shared" ref="K67:K130" si="1">IF(J67&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B67&amp;"',"&amp;"'"&amp;D67&amp;"',"&amp;"'"&amp;F67&amp;"',"&amp;"'"&amp;G67&amp;"',"&amp;"'"&amp;H67&amp;"',"&amp;"'"&amp;I67&amp;"'"&amp;");")</f>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Сурдофон»','ООО "Сурдофон"','Россия','www.surdophone.ru','Россия, Новосибирск, ул. Николаева, 11 (Академпарк), ООО "Сурдофон", тел./факс +7 (383) 363 30 77/78 info@surdophone.com','');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1087</v>
+        <v>1080</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="J68"/>
+      <c r="K68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Телефонные системы»','ООО "Телефонные системы"','Россия','www.komunikator.ru',' Город:  Йошкар-Ола
+Адрес:  Петрова ул. 1
+Телефон:  +78362337050
+Сайт:  http://www.komunikator.ru
+ВКонтакте:  https://vk.com/komunikator_ru
+Facebook:  https://facebook.com/KomunikatorRu ','');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>1092</v>
+        <v>1044</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>1085</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>1086</v>
+      </c>
+      <c r="J69"/>
+      <c r="K69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Фактор связи» ','ООО "Фактор связи"','Россия','н/д','Адрес 
+125047, МОСКВА Г, ТВЕРСКАЯ-ЯМСКАЯ 3-Я УЛ, ДОМ 39//5, СТРОЕНИЕ 1
+Телефон 
+(495)225-98-29','Дочернеее предприятие Акционерное общество
+«СИТРОНИКС Комплексные
+Автоматизированные Системы 
+Управления», входящего в холдинг АФК Система
+its@sitronics-cams.com
+Акционерное общество «СИТРОНИКС» 
+Тел: +7 (495) 225-98-29
+Факс: +7 (495) 225-98-27
+E-mail: info@sitronics.com
+http://www.sitronics.com
+109044 Москва, ул. Мельникова, д. 29');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>16</v>
       </c>
@@ -21455,25 +22835,29 @@
         <v>368</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>1045</v>
+        <v>1037</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>1038</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>0</v>
       </c>
@@ -21481,127 +22865,156 @@
         <v>368</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>1045</v>
+        <v>1037</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>1038</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>1045</v>
+        <v>1037</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>1038</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="K72" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>761</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>1098</v>
+        <v>1090</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>1091</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1089</v>
+      </c>
+      <c r="J73"/>
+      <c r="K73" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью ЛЕКСИ','ООО ЛЕКСИ','Россия','lexybot.com','E-mail: sales@lexybot.com
+Телефоны: +7 (495) 640–57–35
+Адрес: 105037, г. Москва, 1-я Парковая ул., 7, офис 501
+Сайт: lexybot.com
+Соцсети: https://www.facebook.com/lexyRobot , https://vk.com/lexybot , https://twitter.com/robotLexy , https://www.linkedin.com/company/llc-lexy , instagram.com','Резидент Сколково');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>771</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+        <v>1092</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="J74"/>
+      <c r="K74" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью научно-производственная фирма "Кристалл"',' ООО "НПФ "КРИСТАЛЛ"','Россия','www.npf-crystall.ru','440011, г. Пенза, Пр. Победы, дом 13 
+Тел. (841-2) 48-28-90
+факс (841-2) 48-28-90
+e-mail: crystall@sura.ru','');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>1100</v>
+        <v>1092</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>1093</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="K75" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>265</v>
       </c>
@@ -21609,481 +23022,1877 @@
         <v>368</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>1045</v>
+        <v>1037</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>1038</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K76" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Открытое акционерное общество "Корпорация "Фазотрон - Научно-исследовательский институт радиостроения"','АО "Фазотрон-НИИР"','Россия','phazotron.kret.com','123557, Москва, Электрический переулок, 1.
+ info@phazotron.com
+ 8 (495) 927-07-77','');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="K78" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J79"/>
+      <c r="K79" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Открытое акционерное общество «Инновационно-технологический центр «Система-Саров» ','АО ИТЦ «Система-Саров»','Россия','sarov-itc.ru','Адрес: 607328, Нижегородская обл., Дивеевский р-н, п. Сатис, 
+ул. Парковая д.3
+Телефон: 8 (83130) 676-20
+Факс: 8 (83130) 676-21
+Эл. почта: info@sarov-itc.ru','');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K80" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J81"/>
+      <c r="K81" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Открытое акционерное общество «Федеральная сетевая компания Единой энергетической системы»','ПАО «ФСК ЕЭС»','Россия','www.fsk-ees.ru','Юридический адрес и адрес для почтовой отправки корреспонденции: 117630, г. Москва, ул. Академика Челомея, 5А 
+Телефоны: 
+Единый информационный центр: 8-800-200-18-81 
+Факс: +7 (495) 710-96-55 
+Е-mail: info@fsk-ees.ru','');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J82"/>
+      <c r="K82" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Открытое акционерное общество научно-производственный комплекс «РУССКАЯ РАДИОЭЛЕКТРОНИКА»','ОАО НПК «Русская радиоэлектроника»','Россия','н/д','Индекс: 367017
+Адрес: Г МАХАЧКАЛА,УЛ БЕЙБУЛАТОВА Д 12 
+Юридический адрес: 367000, РЕСПУБЛИКА ДАГЕСТАН, Г. МАХАЧКАЛА, УЛ БЕЙБУЛАТОВА Д 12 
+Телефон: 8 (8722) 67-38-79, 8 (988) 291-23-70','');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Акционерное общество «Пензенский научно-исследовательский электротехнический институт»','АО «ПНИЭИ»','Россия','пниэи.рф','Адрес:
+440000, г. Пенза, ул. Советская, д. 9
+Телефоны:
+Приемная: +7 (8412) 59-33-35
+Факс: +7 (8412) 59-33-5
+E-mail: pniei@penza.ru','');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J84"/>
+      <c r="K84" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Поволжский государственный университет телекоммуникаций и информатики"','ФГБОУ ВО ПГУТИ','Россия','www.psuti.ru','Адрес: 443010, г. Самара, ул, Л.Толстого, д. 23.
+тел. (846) 339-11-11, email: abitur@psuti.ru','переименована');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J85"/>
+      <c r="K85" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Российская Федерация, от имени которой выступает Министерство внутренних дел Российской Федерации','МВД РФ','Россия','мвд.рф','119991, г. Москва, ул. Житная, 16
+СПРАВОЧНЫЙ ТЕЛЕФОН-АВТОИНФОРМАТОР: 8 (495) 667-04-02','');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="J86"/>
+      <c r="K86" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Российская Федерация, от имени которой выступает Министерство связи и массовых коммуникаций Российской Федерации','Минкомсвязь России','Россия','minsvyaz.ru','Справочная: +7 495 771-80-00, 8 800 222-15-01 
+Справки по документам: +7 495 771-81-00
+Факс: +7 495 771-80-02
+Электронная почта: office@minsvyaz.ru
+Твиттер: @minsvyaz_news 
+Facebook: Minsvyaz 
+Instagram: @minsvyaz_official
+Адрес: 125375, г. Москва, ул. Тверская, д. 7','');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>772</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J87"/>
+      <c r="K87" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Samsung Electronics Co., Ltd.','Samsung Electronics Co., Ltd.','КНДР','www.samsung.com','129 Samsung-Ro
+Maetan-3dong
+Yeongtong-gu
+Suwon,  443-742
+South Korea
+Почтовый адрес: ООО "Самсунг Электроникс Рус Компани" Российская Федерация, 123242, г. Москва, Новинский бульвар, д. 31, помещение 1, 2
+Телефон: 8-800-555-55-33 c 9.00 до 21.00 без выходных
+Электронная почта: b2bdeals@partners.samsung.com','');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>294</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K88" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J89"/>
+      <c r="K89" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Санкт-Петербург, от имени которого выступает Комитет по информатизации и связи','Комитет по информатизации и связи Санкт-Петербурга','Россия','kis.gov.spb.ru','Санкт-Петербург, Смольный, 191060.
+Телефон приемной : +7 812 576 71 23
+Факс: +7 812 576 73 45
+Канцелярия : +7 812 576 44 06','');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>885</v>
+        <v>881</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>1044</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+      <c r="J90"/>
+      <c r="K90" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Softhus Sp. z o.o.','Softhus Sp. z o.o.','Польша','н/д','ul. Orląt Lwowskich 15
+81-456 Gdynia
+woj. Pomorskie
+tel. 506 315 977
+mail@softhus.com','');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>752</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G91" s="6" t="s">
-        <v>892</v>
-      </c>
       <c r="H91" s="2" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+      <c r="J91"/>
+      <c r="K91" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('SpeechWorks International, Inc.','SpeechWorks International, Inc.','США','www.nuance.com','695 Atlantic Avenue
+Boston, MA 02111
+United States
+Phone:
+617-428-4444
+Fax:
+617-428-1122','As of August 11, 2003, SpeechWorks International, Inc. was acquired by Nuance Communications, Inc. ');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>889</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J92"/>
+      <c r="K92" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Speechfx, Inc.','Speechfx, Inc.','США','www.speechfxinc.com','321 East State Street 
+Suite 10
+American Fork, UT 84003 
+Phone:801-382-7997 
+Email: sales@speechfxinc.com 
+Investor Relations: ir@speechfxinc.com','');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>768</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J93"/>
+      <c r="K93" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Telefonaktiebolaget L M Ericsson  (publ)','Telefonaktiebolaget L M Ericsson','Швеция','www.ericsson.com','Torshamnsgatan 21
+Kista
+Stockholm,  164 83
+Sweden
+Phone:
+46 1 07 19 00 00','');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J94"/>
+      <c r="K94" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Учреждение Российской академии наук Институт проблем управления им. В.А. Трапезникова РАН','ИПУ РАН','Россия','www.ipu.ru','ИПУ РАН
+Россия, 117997, Москва
+ул. Профсоюзная, д. 65
+Телефон: +7 495 334-89-10
+Факс: +7 495 334-93-40, +7 499 234-64-26
+E-mail: dan@ipu.ru','');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>1148</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="J95"/>
+      <c r="K95" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное научное учреждение "Центр информационных технологий и систем органов исполнительной власти"','ФГАНУ ЦИТиС','Россия','www.citis.ru','123557, Москва, Пресненский Вал, 19, стр. 1
+Телефон канцелярии:+7 (495) 737-01-31, +7 (499) 702-81-20
+Факс:+7 (495) 737-01-50, +7 (499) 702-82-45
+E-mail канцелярии:citis@inevm.ru','');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>1159</v>
+      </c>
+      <c r="J96"/>
+      <c r="K96" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего образования «Санкт-Петербургский национальный исследовательский университет информационных технологий, механики и оптики» ','Университет ИТМО','Россия','www.ifmo.ru','197101, г. Санкт-Петербург, Кронверкский проспект, д.49.
+ Общий отдел Университета ИТМО
+телефон: +7 (812) 232-97-04
+факс: +7 (812) 232-23-07','');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J97"/>
+      <c r="K97" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего образования «Северо-Кавказский федеральный университет»','ФГАОУ ВО СКФУ','Россия','www.ncfu.ru','ФГАОУ ВО «Северо-Кавказский федеральный университет»
+Адрес: 355009, г. Ставрополь, ул. Пушкина, 1
+Телефон: 8 (8652) 95-68-08
+Факс: 8 (8652) 95-68-03
+E-mail: info@ncfu.ru ','');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J98"/>
+      <c r="K98" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('федеральное государственное автономное образовательное учреждение высшего образования «Южный федеральный университет»','Южный Федеральный Университет','Россия','www.sfedu.ru','(+7 863) 218-40-00
+Почтовый адрес: 344006 г. Ростов-на-Дону, ул. Б. Садовая, 105/42
+Электронный адрес: info@sfedu.ru','');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>960</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J99"/>
+      <c r="K99" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего профессионального образования "Белгородский государственный национальный исследовательский университет"','НИУ БелГУ','Россия','www.bsu.edu.ru','оссия, 
+308015, г. Белгород, ул. Победы, 85, 
+Тел: (4722) 30-12-11 
+Факс: (4722) 30-10-12, (4722) 30-12-13','');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G100" t="s">
+        <v>942</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K100" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>1176</v>
+      </c>
+      <c r="J101"/>
+      <c r="K101" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего профессионального образования «Дальневосточный федеральный университет»','ФГАОУ ВО ДВФУ','Россия','www.dvfu.ru','Почтовый адрес ДВФУ: Россия, 690091, г. Владивосток, ул. Суханова, 8.
+Место нахождения Университета: г. Владивосток о. Русский, поселок Аякс - 10, кампус ДВФУ.
+Телефон: (423) 265-24-29;  (423) 243-34-72, факс (423) 243-23-15
+E-mail: rectorat@dvfu.ru','');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H102" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J102"/>
+      <c r="K102" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Чувашский государственный университет имени И.Н.Ульянова"',' ФГБОУ ВО «ЧГУ им. И.Н. Ульянова»','Россия','www.chuvsu.ru','Адрес университета: 428015, Россия, Чувашская Республика, город Чебоксары, Московский проспект, д. 15. Телефон: (8352) 58-30-36, 45-23-39 доп.37-50. ','');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J103"/>
+      <c r="K103" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования «Пензенский государственный университет» ','ФГБОУ ВО ПГУ','Россия','www.pnzgu.ru','Юридический адрес образовательной организации: 440026 г. Пенза, ул. Красная, 40 
+Контактная информация:
+Тел: (8412) 56-35-11 (приемная)
+e-mail: rector@pnzgu.ru','');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="J104"/>
+      <c r="K104" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования «Российский государственный педагогический университет им. А. И. Герцена»','ФГБОУ ВО РГПУ им. А.И. Герцена','Россия','www.herzen.spb.ru','191186, Санкт-Петербург, набережная реки Мойки, д.48.
+Телефон: (812) 312-44-92
+Факс: (812) 312-11-95
+E mail: mail@herzen.spb.ru ','');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J105"/>
+      <c r="K105" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования "Воронежский государственный университет"','ФГБУ ВПО ВГУ','Россия','www.vsu.ru','Адрес
+394018, Россия, г. Воронеж, Университетская площадь, 1
+Телефон
++7 (473) 220-75-21
+Телеграф
+Россия, Воронеж, 22
+Факс
++7 (473) 220-87-55
+E-mail
+office@main.vsu.ru','');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="180" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>1183</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K106" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H107" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="J107"/>
+      <c r="K107" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Алтайский государственный университет»','ФГБОУ ВО АлтГУ','Россия','www.asu.ru','Юридический адрес: 656049, Барнаул, пр. Ленина, 61
+Тел.: (385-2) 291-291
+Факс: (385-2) 667-626
+E-mail: rector@asu.ru
+Сайт: www.asu.ru','');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="J108"/>
+      <c r="K108" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Владивостокский государственный университет экономики и сервиса»','ФГБОУ ВО ВГУЭС','Россия','www.vvsu.ru','Адрес: 690014, г. Владивосток, ул. Гоголя, 41
+Телефон приемной ректората: +7 423 240-42-89
+Телефон помощника ректора: +7 423 240-40-00
+E-mail: rector@vvsu.ru','');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="J109"/>
+      <c r="K109" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Ижевский государственный технический университет имени М.Т. Калашникова»','ФГБОУ ВПО "ИжГТУ имени М.Т. Калашникова"','Россия','www.istu.ru','Контакты
+Адрес: 426069, Удмуртская Республика, г. Ижевск, ул. Студенческая, д. 7
+Единый многоканальный телефон:
+(3412) 77-60-55
+Факс: (3412) 50-40-55
+Эл. почта: info@istu.ru','');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Московский государственный лингвистический университет»','ФГБОУ ВПО МГЛУ','Россия','www.linguanet.ru','Место нахождения вуза: 119034, г. Москва, Остоженка 38, стр. 1
+Справочный телефон: 8-495-6375597 
+Факс: 8 (499) 245-19-90  
+Электронная почта: info@linguanet.ru','');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>1219</v>
+      </c>
+      <c r="J111"/>
+      <c r="K111" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Санкт-Петербургский государственный университет»','ФГБОУ ВПО СПбГУ','Россия','spbu.ru','199034, Россия, Санкт-Петербург, Университетская наб., д. 7–9
+Тел: +7 (812) 328–20–00
+Эл. почта: spbu@spbu.ru
+Cайт: http://spbu.ru','');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J112"/>
+      <c r="K112" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Сибирский государственный аэрокосмический университет имени академика М.Ф. Решетнева»','ФГБОУ ВПО СибГУ им. М.Ф. Решетнева','Россия','www.sibsau.ru','660037, Сибирский федеральный округ, Красноярский край, город Красноярск, проспект им. газеты Красноярский рабочий, дом 31
+тел.: 8 (391) 264-00-14 - приемная ректора
+факс: 8 (391) 264-47-09
+e-mail: info@sibsau.ru','');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K113" s="2" t="e">
+        <f>IF(#REF!&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B113&amp;"',"&amp;"'"&amp;D113&amp;"',"&amp;"'"&amp;F113&amp;"',"&amp;"'"&amp;G113&amp;"',"&amp;"'"&amp;H113&amp;"',"&amp;"'"&amp;J113&amp;"'"&amp;");")</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="J114"/>
+      <c r="K114" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Хакасский государственный университет им. Н.Ф. Катанова» ','ФГБОУ ВО ХГУ им. Н.Ф. Катанова','Россия','www.khsu.ru','655000, Республика Хакасия, г. Абакан, ул. Ленина, 90;
+Телефоны: +7(3902)243018, +7(3902)243364 
+Факс: +7(3902)243364
+Электронная почта:  univer@khsu.ru ,  rektor@khsu.ru','');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J115"/>
+      <c r="K115" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное учреждение науки Институт проблем управления им. В.А. Трапезникова Российской академии наук','ФГБУН ИПУ РАН','Россия','www.ipu.ru','Россия, 117997, Москва
+ул. Профсоюзная, д. 65
+Телефон: +7 495 334-89-10
+Факс: +7 495 334-93-40, +7 499 234-64-26
+E-mail: dan@ipu.ru','');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J116"/>
+      <c r="K116" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное учреждение науки Санкт-Петербургский институт информатики и автоматизации Российской академии наук','ФГБУН СПИИРАН','Россия','www.spiiras.nw.ru','АДРЕС
+199178, Россия, Санкт-Петербург,
+14 линия, дом 39
+ТЕЛЕФОН
++7-(812)-328-34-11
+ФАКС
++7-(812)-328-44-50
+ЭЛЕКТРОННАЯ ПОЧТА
+spiiran@iias.spb.su','');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K117" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>924</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="K118" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B119" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="J119"/>
+      <c r="K119" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-воздушных сил "Военно-воздушная академия имени профессора Н.Е. Жуковского и Ю.А. Гагарина" Министерства обороны Российской Федерации','ВУНЦ ВВС ВВА','Россия','академия-ввс.рф','394064, г. Воронеж, ул. Старых Большевиков, 54 «А»
+8 (473) 226-47-52 - факс
+8 (473) 244-76-04 - факс
+E-mail:  vaiu@mil.ru','');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B120" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="J120"/>
+      <c r="K120" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-морского Флота "Военно-морская академия имени адмирала флота Советского Союза Н.Г. Кузнецова"','ВУНЦ ВМФ Военно-морская академия','Россия','vma.mil.ru','Адрес: 197045, г. Санкт-Петербург, Ушаковская набережная, д. 17/1
+Телефоны: 8 (812) 496-16-18(дежурный); 8 (812) 431-92-44, 430-66-24 (приёмная начальника)
+Email: vunc-vmf@mil.ru','');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="J121"/>
+      <c r="K121" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное казенное образовательное учреждение высшего профессионального образования «Воронежский институт Министерства внутренних дел Российской Федерации»',' ФГКОУ ВПО "Воронежский институт МВД России"','Россия','www.vimvd.ru','телефон +7 (473) 247-67-07
+vrnin@mvd.ru
+394065, г. Воронеж, пр-т Патриотов, 53','');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J122"/>
+      <c r="K122" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное научное учреждение научно-исследовательский институт "Специализированные вычислительные устройства защиты и автоматика"','ФГАНУ НИИ "Спецвузавтоматика"','Россия','www.niisva.su','344011, г. Ростов-на-Дону, ул. Города Волос, д. 6, а/я 488;
+тел./факс +7 (863) 201-28-17 (г. Ростов-на-Дону)
+тел. +7 (495) 705-93-21 (г. Москва)
+тел.:+7(960) 467-08-80, +7(906)-180-02-66
+info@niisva.org','');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="K123" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K124" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J125"/>
+      <c r="K125" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное унитарное предприятие Ленинградский отраслевой научно-исследовательский институт связи','ФГУП ЛО ЦНИИС','Россия','loniis.ru','96128, Россия, Санкт-Петербург, ул. Варшавская, 11.
+тел.: (812) 369-38-67
+факс: (812) 369-38-78
+e-mail: info@loniis.ru','');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>1044</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+      <c r="J126"/>
+      <c r="K126" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Ford Global Technologies, LLC','Ford Global Technologies','США','н/д','330 Town Center Drive
+Fairlane Plaza South
+Suite 800
+Dearborn, MI 48126
+United States
+Phone:
+313-390-9453
+Fax:
+313-574-0951','Ford Global Technologies, LLC owns, manages and commercializes patents and copyrights for Ford Motors.');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>910</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>903</v>
+      </c>
+      <c r="J127"/>
+      <c r="K127" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Fraunhofer-Gesellschaft zur Förderung der Angewandten Forschung e.V.','Fraunhofer-Gesellschaft','Германия','www.fraunhofer.de','Mailing address
+Postfach 20 07 33 
+80007 Munich 
+Germany 
+Phone +49 89 1205-0 
+Fax +49 89 1205-7531 
+Address for visitors
+Hansastraße 27c 
+80686 Munich 
+Germany','');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+      <c r="J128"/>
+      <c r="K128" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Ericsson AB','Ericsson AB','Швеция','www.ericsson.com','Torshamnsgatan 21
+Kista,  164 83
+Sweden
+Phone:
+46 1 07 19 00 00
+Fax:
+46 87 52 80 56','');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>910</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="J129"/>
+      <c r="K129" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Ericsson Inc.','Ericsson Inc.','США','www.ericsson.com/us','6300 Legacy Drive
+Plano, TX 75024
+United States
+Phone:
+972-583-0000
+Fax:
+972-583-2273','');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="G130" s="6" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="K130" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Московский государственный технический университет имени Н.Э. Баумана"','ФГБОУ ВО МГТУ им.  Н.Э. Баумана','Россия','www.bmstu.ru','г. Москва, 2-я Бауманская ул., д. 5, стр. 1
+Почтовый индекс: 105005
+Тел.: (499) 263 63 91
+Факс: (499) 267 48 44
+E-mail: bauman@bmstu.ru','');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="F129" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>914</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H130" s="6"/>
+      <c r="G131" s="5" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K131" s="2" t="str">
+        <f t="shared" ref="K131:K134" si="2">IF(J131&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B131&amp;"',"&amp;"'"&amp;D131&amp;"',"&amp;"'"&amp;F131&amp;"',"&amp;"'"&amp;G131&amp;"',"&amp;"'"&amp;H131&amp;"',"&amp;"'"&amp;I131&amp;"'"&amp;");")</f>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Вычислительный центр им. А.А. Дородницына Российской академии наук Федерального исследовательского центра «Информатика и управление» Российской академии наук','ВЦ ФИЦ ИУ РАН','Россия','www.ccas.ru','Адрес: 119333, Москва, ул. Вавилова, 40, 
+Телефон: 8-499-135-04-40 
+Факс:   8-499-135-61-59 
+Электронная почта:wcan@ccas.ru 
+','входит в состав Федерального исследовательского центра «Информатика и управление» на базе Института проблем информатики РАН');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K132" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования «Государственный университет морского и речного флота имени адмирала С.О. Макарова»','ФГБОУ ВО «ГУМРФ имени адмирала С.О. Макарова»','Россия','gumrf.ru','Адрес Университета: 198035, г. Санкт-Петербург, ул. Двинская, 5/7
+тел. 748-96-92 
+тел. 748-96-93
+E-mail: otd_o@gumrf.ru','');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="K133" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное учреждение науки институт проблем передачи информации  им. А.А.Харкевича  Российской академии наук','ИППИ РАН','Россия','www.iitp.ru','127051, МОСКВА Г, КАРЕТНЫЙ Б. ПЕР, ДОМ 19, СТРОЕНИЕ 1
+Телефон: 8 (495) 650-42-25
+Факс: 650-05-79','');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K134" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Институт автоматики и вычислительной техники НИУ МЭИ','АВТИ НИУ МЭИ','Россия','avti.mpei.ru','Адрес: 111250, Россия, г. Москва,
+Красноказарменная улица, дом 14
+Справочная МЭИ: +7 495 362-75-60
+Email: universe@mpei.ac.ru','входит в состав федерального  государственного бюджетного образовательного учреждения высшего образования «Национальный исследовательский университет « МЭИ»');</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J131">
-    <filterColumn colId="1">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J129"/>
   <sortState ref="A1:A131">
     <sortCondition ref="A1:A131"/>
   </sortState>
@@ -22143,9 +24952,40 @@
     <hyperlink ref="G68" r:id="rId53"/>
     <hyperlink ref="G74" r:id="rId54"/>
     <hyperlink ref="G75" r:id="rId55"/>
+    <hyperlink ref="G81" r:id="rId56"/>
+    <hyperlink ref="G84" r:id="rId57"/>
+    <hyperlink ref="G94" r:id="rId58"/>
+    <hyperlink ref="G95" r:id="rId59"/>
+    <hyperlink ref="G96" r:id="rId60"/>
+    <hyperlink ref="G97" r:id="rId61"/>
+    <hyperlink ref="G98" r:id="rId62"/>
+    <hyperlink ref="G99" r:id="rId63"/>
+    <hyperlink ref="G101" r:id="rId64"/>
+    <hyperlink ref="G102" r:id="rId65"/>
+    <hyperlink ref="G124" r:id="rId66"/>
+    <hyperlink ref="G103" r:id="rId67"/>
+    <hyperlink ref="G104" r:id="rId68"/>
+    <hyperlink ref="G105" r:id="rId69"/>
+    <hyperlink ref="G106" r:id="rId70"/>
+    <hyperlink ref="G107" r:id="rId71"/>
+    <hyperlink ref="G108" r:id="rId72"/>
+    <hyperlink ref="G109" r:id="rId73"/>
+    <hyperlink ref="G110" r:id="rId74"/>
+    <hyperlink ref="G112" r:id="rId75"/>
+    <hyperlink ref="G113" r:id="rId76"/>
+    <hyperlink ref="G114" r:id="rId77"/>
+    <hyperlink ref="G115" r:id="rId78"/>
+    <hyperlink ref="G116" r:id="rId79"/>
+    <hyperlink ref="G117" r:id="rId80"/>
+    <hyperlink ref="G121" r:id="rId81"/>
+    <hyperlink ref="G122" r:id="rId82"/>
+    <hyperlink ref="G123" r:id="rId83"/>
+    <hyperlink ref="G130" r:id="rId84"/>
+    <hyperlink ref="G131" r:id="rId85"/>
+    <hyperlink ref="G133" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId87"/>
 </worksheet>
 </file>
 

--- a/fips/companies.xlsx
+++ b/fips/companies.xlsx
@@ -20,7 +20,7 @@
     <sheet name="Лист11" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист11!$A$1:$J$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Лист11!$F$1:$F$134</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Лист1!$A$1:$A$395</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">Лист8!$A$1:$A$874</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="1307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5062" uniqueCount="1304">
   <si>
     <t>Общество с ограниченной ответственностью «Центр речевых технологий» (ООО «ЦРТ») (RU)</t>
   </si>
@@ -2767,9 +2767,6 @@
     <t>Samsung Electronics</t>
   </si>
   <si>
-    <t>КНДР</t>
-  </si>
-  <si>
     <t>www.samsung.com</t>
   </si>
   <si>
@@ -2970,9 +2967,6 @@
   </si>
   <si>
     <t>ООО "АСM Решения"</t>
-  </si>
-  <si>
-    <t>Государственное казенное образовательное учреждение высшего профессионального образования "Академия Федеральной службы охраны Российской Федерации"</t>
   </si>
   <si>
     <t>Юридический адрес
@@ -4172,9 +4166,6 @@
     <t>Федеральное государственное научное учреждение научно-исследовательский институт "Специализированные вычислительные устройства защиты и автоматика"</t>
   </si>
   <si>
-    <t>Федеральное государственное научное учреждение научно-исследовательский институт "Специализированный вычислительные устройства защиты и автоматика"</t>
-  </si>
-  <si>
     <t>www.spiiras.nw.ru</t>
   </si>
   <si>
@@ -4241,9 +4232,6 @@
     <t>Специализированные вычислительные устройства защиты и автоматика</t>
   </si>
   <si>
-    <t>Специализированный вычислительные устройства защиты и автоматика</t>
-  </si>
-  <si>
     <t>ФГАНУ НИИ "Спецвузавтоматика"</t>
   </si>
   <si>
@@ -4424,6 +4412,9 @@
   </si>
   <si>
     <t>входит в состав федерального  государственного бюджетного образовательного учреждения высшего образования «Национальный исследовательский университет « МЭИ»</t>
+  </si>
+  <si>
+    <t>Республика Корея</t>
   </si>
 </sst>
 </file>
@@ -4431,7 +4422,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="000000"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -4527,7 +4518,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -20578,8 +20569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20595,11 +20586,12 @@
     <col min="9" max="9" width="58.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="24.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="153.28515625" customWidth="1"/>
+    <col min="12" max="12" width="117.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>782</v>
@@ -20623,10 +20615,10 @@
         <v>787</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
@@ -20652,7 +20644,7 @@
         <v>793</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J2"/>
       <c r="K2" s="2" t="str">
@@ -20662,7 +20654,10 @@
 Fax: +81-3-3568-2007
 Mail: information@agi-web.co.jp','переименована');</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="str">
+        <f>"INSERT name_ref  ( `src_name`, `full_name`) VALUES("&amp;"'"&amp;A2&amp;"',"&amp;"'"&amp;B2&amp;"'"&amp;");"</f>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('А.Г.И. Инк. (JP)','Advanced Generation Interface Japan, Inc.');</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -20687,7 +20682,7 @@
         <v>793</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>769</v>
@@ -20696,8 +20691,12 @@
         <f t="shared" ref="K3:K66" si="0">IF(J3&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B3&amp;"',"&amp;"'"&amp;D3&amp;"',"&amp;"'"&amp;F3&amp;"',"&amp;"'"&amp;G3&amp;"',"&amp;"'"&amp;H3&amp;"',"&amp;"'"&amp;I3&amp;"'"&amp;");")</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L66" si="1">"INSERT name_ref  ( `src_name`, `full_name`) VALUES("&amp;"'"&amp;A3&amp;"',"&amp;"'"&amp;B3&amp;"'"&amp;");"</f>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('АГИ Инк. (JP)','Advanced Generation Interface Japan, Inc.');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>330</v>
       </c>
@@ -20734,6 +20733,10 @@
 Fax: -
 Web url: www.jawbone.com','');</v>
       </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('АЛИФКОМ (US)','AliphCom dba Jawbone (the "Company") ');</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -20746,7 +20749,7 @@
         <v>802</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>791</v>
@@ -20765,8 +20768,12 @@
 1-105 Kanda Jinbocho, Chiyoda-ku, Tokyo 101-8101 Japan
 Phone: +81-(0)3-3296-3000','');</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('АСАХИ КАСЕИ КАБУСИКИ КАЙСЯ (JP)','Asahi Kasei Kabushiki kaisha, engl. Asahi Kasei Corporation');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>267</v>
       </c>
@@ -20783,7 +20790,7 @@
         <v>807</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>808</v>
@@ -20799,28 +20806,32 @@
 Email: 
    info@voice-insight.com','');</v>
       </c>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ВОЙС-ИНСАЙТ (BE)','Voice-Insight SA');</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H7" s="9" t="s">
         <v>913</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>914</v>
       </c>
       <c r="J7"/>
       <c r="K7" s="2" t="str">
@@ -20829,28 +20840,32 @@
 Телефон 4-68-94; 3-05-36; (84593) 3-05-34; 3-40-17; 3-40-18
 Факс 3-40-17','');</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Войсковая часть 61469','Войсковая часть 61469 -ФЕДЕРАЛЬНОЕ ГОСУДАРСТВЕННОЕ УНИТАРНОЕ ПРЕДПРИЯТИЕ "ГОСУДАРСТВЕННЫЙ ИНСТИТУТ ТЕХНОЛОГИИ ОРГАНИЧЕСКОГО СИНТЕЗА С ОПЫТНЫМ ЗАВОДОМ"');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>336</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>921</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J8"/>
       <c r="K8" s="2" t="str">
@@ -20862,56 +20877,64 @@
 Факс
 (4862) 54-95-27','');</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственное казенное образовательное учреждение высшего профессионального образования Академия Федеральной службы охраны Российской Федерации (Академия ФСО России) (RU)','Федеральное государственное казенное образовательное учреждение высшего профессионального образования "Академия Федеральной службы охраны Российской Федерации"');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>933</v>
-      </c>
       <c r="H9" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J9"/>
       <c r="K9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Государственное научное бюджетное учреждение «Академия наук Республики Татарстан»','ГНБУ Академия наук РТ','Россия','www.antat.ru','420111, г. Казань, ул.Баумана, 20, e-mail: anrt@antat.ru телефон приемной: (843) 292-40-34, факс: (843) 292-07-62','');</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственное научное бюджетное учреждение «Академия наук Республики Татарстан» (RU)','Государственное научное бюджетное учреждение «Академия наук Республики Татарстан»');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>262</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J10"/>
       <c r="K10" s="2" t="str">
@@ -20924,31 +20947,35 @@
 учебный корпус N1
 E-mail:rector@vorstu.ru  rector@vgasu.vrn.ru','');</v>
       </c>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственное образовательное учреждение высшего профессионального образования "Воронежский государственный технический университет" (RU)','Федеральное государственное бюджетное образовательное учреждение высшего образования «Воронежский государственный технический университет»');</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>310</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G11" t="s">
+        <v>940</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G11" t="s">
-        <v>942</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>947</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J11"/>
       <c r="K11" s="2" t="str">
@@ -20957,28 +20984,32 @@
 Адрес электронной почты: public.mail@kpfu.ru
 420008, Россия, РТ, г. Казань, ул. Кремлевская, д.18.','Переименован');</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственное образовательное учреждение высшего профессионального образования "Казанский государственный университет им. В.И. Ульянова-Ленина" (RU)','Федеральное государственное автономное образовательное учреждение высшего образования "Казанский (Приволжский) федеральный университет"');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>747</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>948</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>950</v>
-      </c>
       <c r="H12" s="9" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="J12"/>
       <c r="K12" s="2" t="str">
@@ -20986,28 +21017,32 @@
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Рязанский государственный радиотехнический университет"','ФГБОУ ВО РГРТУ','Россия','www.rsreu.ru','Юридический адрес:
 390005, г. Рязань, ул. Гагарина, 59/1','');</v>
       </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственное образовательное учреждение высшего профессионального образования "Рязанский государственный радиотехнический университет" (RU)','Федеральное государственное бюджетное образовательное учреждение высшего образования "Рязанский государственный радиотехнический университет"');</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>744</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J13"/>
       <c r="K13" s="2" t="str">
@@ -21016,28 +21051,32 @@
 +7 (8422) 43-02-37 
 rector@ulstu.ru','');</v>
       </c>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственное образовательное учреждение высшего профессионального образования "Ульяновский государственный технический университет" (RU)','Федеральное государственное бюджетное образовательное учреждение высшего образования "Ульяновский государственный технический университет"');</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>364</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>923</v>
+        <v>1266</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>921</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>336</v>
@@ -21046,8 +21085,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственное образовательное учреждение высшего профессионального образования Академия Федеральной службы охраны Российской Федерации (Академия ФСО России) (RU)','Федеральное государственное казенное образовательное учреждение высшего профессионального образования "Академия Федеральной службы охраны Российской Федерации"');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>377</v>
       </c>
@@ -21055,22 +21098,22 @@
         <v>377</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H15" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>956</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J15"/>
       <c r="K15" s="2" t="str">
@@ -21078,28 +21121,32 @@
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Государственное предприятие Конструкторское бюро "Спецвузавтоматика"','ГП КБ "СПЕЦВУЗАВТОМАТИКА"','Россия','н/д','г.Ростов-на-Дону, пер.Газетный, д.51, 344002
 (8632)932894','Ликвидировано');</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственное предприятие Конструкторское бюро "Спецвузавтоматика"','Государственное предприятие Конструкторское бюро "Спецвузавтоматика"');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>764</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>958</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>959</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>960</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>961</v>
       </c>
       <c r="J16"/>
       <c r="K16" s="2" t="str">
@@ -21109,8 +21156,12 @@
 Факс: (4722) 30-10-12, (4722) 30-12-13
 E-mail: Info@bsu.edu.ru','');</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ГОУ ВПО "Белгородский государственный университет" (RU)','Федеральное государственное автономное образовательное учреждение высшего образования «Белгородский государственный национальный исследовательский университет» ');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>316</v>
       </c>
@@ -21144,8 +21195,12 @@
 Россия
 Телефон: +7-495-644-1400','');</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Гугл Инк. (US)','Google Inc.');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>323</v>
       </c>
@@ -21179,8 +21234,12 @@
 Fax: 353-61-507-279
 Web url: www.dts.com','');</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ДиТиЭс ЛАЙСЕНЗИНГ ЛИМИТЕД (IE)','Dts Licensing Ltd');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>312</v>
       </c>
@@ -21209,8 +21268,12 @@
 53113 Bonn
 Germany','');</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ДОЙЧЕ ТЕЛЕКОМ АГ (DE)','Deutsche Telekom AG');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>756</v>
       </c>
@@ -21241,8 +21304,12 @@
 Тел.: +3120 312 0517
 Факс: +31 20 312 0444','');</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ДОЛБИ ИНТЕРНЭШНЛ АБ (NL)','Dolby International AB');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>755</v>
       </c>
@@ -21275,31 +21342,35 @@
 Fax:
 415-863-1373','');</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ДОЛБИ ЛЭБОРЕТЕРИЗ ЛАЙСЕНСИНГ КОРПОРЕЙШН (US)',' Dolby Laboratories Licensing Corporation');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>345</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>967</v>
-      </c>
       <c r="H22" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J22"/>
       <c r="K22" s="2" t="str">
@@ -21309,31 +21380,35 @@
 Почтовый адрес: 127521, г. Москва, 17-й проезд Марьиной Рощи, дом 2 (КД НЭФ, с пометкой "для ООО ИстраСофт")
 Фактический адрес: 127521, г. Москва, 17-й проезд Марьиной Рощи, дом 2.','Переименовано');</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Закрытое акционерное общество "ИстраСофт"','Общество с ограниченной ответсвенностью "ИстраСофт"');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>967</v>
-      </c>
       <c r="H23" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>345</v>
@@ -21342,28 +21417,32 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Закрытое акционерное общество "ИстраСофт" (RU)','Общество с ограниченной ответсвенностью "ИстраСофт"');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>971</v>
-      </c>
       <c r="H24" s="9" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J24"/>
       <c r="K24" s="2" t="str">
@@ -21373,28 +21452,32 @@
 +7 495 787-33-42
 armo@armo.ru','');</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Закрытое акционерное общество «ΑΡΜΟ» (RU)','Закрытое акционерное общество «ΑΡΜΟ» ');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>971</v>
+      </c>
+      <c r="H25" s="9" t="s">
         <v>972</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>973</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>974</v>
       </c>
       <c r="J25"/>
       <c r="K25" s="2" t="str">
@@ -21411,31 +21494,35 @@
 Электронная почта:
 По любым вопросам: pr@intellex.ru','');</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Закрытое акционерное общество «ИнтэлЛекс» (RU)','Закрытое акционерное общество «ИнтэлЛекс»');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>967</v>
-      </c>
       <c r="H26" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>345</v>
@@ -21444,28 +21531,32 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Закрытое акционерное общество «ИстраСофт» (RU)','Общество с ограниченной ответсвенностью "ИстраСофт"');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>975</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>977</v>
       </c>
       <c r="J27"/>
       <c r="K27" s="2" t="str">
@@ -21473,31 +21564,35 @@
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('ЗАО «НТЦ Передовые Системы»','ЗАО «НТЦ Передовые Системы»','Россия','forsys.ru','107258 г. Москва, ул.Глебовская, дом 20Б
 Е-mail: info@forsys.ru','');</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Закрытое акционерное общество «НТЦ Передовые Системы» (RU)','ЗАО «НТЦ Передовые Системы»');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>384</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>967</v>
-      </c>
       <c r="H28" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>345</v>
@@ -21506,8 +21601,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ЗАО "ИстраСофт" (RU)','Общество с ограниченной ответсвенностью "ИстраСофт"');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>347</v>
       </c>
@@ -21542,31 +21641,35 @@
 MONTRÉAL (QC) H3B 2C4
 CANADA','');</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ЗЕРО ТУ УАН ТЕКНОЛОДЖИ (FR)','Zero to One technology');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>835</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J30"/>
       <c r="K30" s="2" t="str">
@@ -21574,8 +21677,12 @@
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('ЗАО "Интел А\О"','ЗАО "Интел А\О"','Россия','www.intel.com',' 121614, МОСКВА, КРЫЛАТСКАЯ УЛ., 17, К. 4
 495) 6414510 , (495) 6414500 , (495) 6414510 ','Переименовано');</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ИНТЕЛ ЗАО (RU)','ЗАО "Интел А\О"');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>279</v>
       </c>
@@ -21606,8 +21713,12 @@
 USA (США)
 (408) 765-8080','');</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ИНТЕЛ КОРПОРЕЙШН (US)','Intel Corp.');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>352</v>
       </c>
@@ -21618,7 +21729,7 @@
         <v>839</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>797</v>
@@ -21639,8 +21750,12 @@
 914-499-1900
 www.ibm.com','');</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ИНТЕРНЭШНЛ БИЗНЕС МАШИНЗ КОРПОРЕЙШН (US)','International Business Machines Corporation');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>751</v>
       </c>
@@ -21671,8 +21786,12 @@
 USA
 (858) 587-1121','');</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('КВЭЛКОММ ИНКОРПОРЕЙТЕД (US)','Qualcomm Inc.');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>324</v>
       </c>
@@ -21705,8 +21824,12 @@
 Amsterdam,  1096 BC
 Netherlands','');</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('КОНИНКЛЕЙКЕ ФИЛИПС ЭЛЕКТРОНИКС Н.В. (NL)','Koninklijke Philips N.V.');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>774</v>
       </c>
@@ -21714,27 +21837,31 @@
         <v>851</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>851</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>874</v>
+        <v>1303</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J35"/>
       <c r="K35" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Корпорация С1','Корпорация С1','КНДР','н/д','н/д','');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Корпорация С1','Корпорация С1','Республика Корея','н/д','н/д','');</v>
+      </c>
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Корпорация С1 (KR)','Корпорация С1');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>325</v>
       </c>
@@ -21767,8 +21894,12 @@
 Fax: +65 6895 4999
 Website: http://creative.com','');</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('КРИЭЙТИВ ТЕКНОЛОДЖИ ЛТД. (SG)','Creative Technology Ltd.');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>258</v>
       </c>
@@ -21779,7 +21910,7 @@
         <v>860</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>797</v>
@@ -21804,8 +21935,12 @@
 Тел.: +7 (495) 967-85-85
 Факс: +7 (495) 967-85-00','');</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('МАЙКРОСОФТ КОРПОРЕЙШН (US)','Microsoft Corporation');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>334</v>
       </c>
@@ -21816,7 +21951,7 @@
         <v>863</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>797</v>
@@ -21841,8 +21976,12 @@
 Тел.: +7 (495) 967-85-85
 Факс: +7 (495) 967-85-00','');</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('МАЙКРОСОФТ ТЕКНОЛОДЖИ ЛАЙСЕНСИНГ, ЭлЭлСи (US)','Microsoft Technology Licensing, Llc');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>300</v>
       </c>
@@ -21853,7 +21992,7 @@
         <v>867</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>868</v>
@@ -21876,8 +22015,12 @@
 Postal address
 P.O.Box 226, FI-00045 Nokia Group','');</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Нокиа Корпорейшн (FI)','Nokia Corporation');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>759</v>
       </c>
@@ -21908,56 +22051,64 @@
 010 4488 000
 010 4481 002','');</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Нокиа Текнолоджиз Ой (FI)','Nokia Technologies Oy');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J41"/>
       <c r="K41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "АСМ Решения"','ООО "АСM Решения"','Россия','н/д','105203, город Москва, улица Первомайская Нижн., дом 48/9','');</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "АСМ Решения" (ООО "АСM Решения") (RU)','Общество с ограниченной ответственностью "АСМ Решения"');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>52</v>
@@ -21966,59 +22117,67 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "АСМ Решения" (ООО "АСМ Решения") (RU)','Общество с ограниченной ответственностью "АСМ Решения"');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>762</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="J43"/>
       <c r="K43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "ДЖЕНТ КЛАБ"','ООО "ДЖЕНТ КЛАБ"','Россия','н/д','109451, Москва, улица Братиславская, д. 21, оф. СЕКЦИЯ 1','');</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "ДЖЕНТ КЛАБ" (RU)','Общество с ограниченной ответственностью "ДЖЕНТ КЛАБ"');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>770</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G44" s="6" t="s">
         <v>965</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>967</v>
-      </c>
       <c r="H44" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>345</v>
@@ -22027,28 +22186,32 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с Ограниченной ответственностью "ИстраСофт" (RU)','Общество с ограниченной ответсвенностью "ИстраСофт"');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>255</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H45" s="9" t="s">
         <v>985</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>987</v>
       </c>
       <c r="J45"/>
       <c r="K45" s="2" t="str">
@@ -22057,31 +22220,35 @@
 Телефон: +38 /044/ 502-01-14
 info@polygon-ukraine.com','');</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="226.5" x14ac:dyDescent="0.25">
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Полигон Интегрейшн Украина" (UA)','ООО "Полигон Интегрейшн Украина" ');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="226.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>758</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>1013</v>
       </c>
       <c r="J46"/>
       <c r="K46" s="2" t="str">
@@ -22098,28 +22265,32 @@
 api.ai
 API.AI is now Dialogflow:   dialogflow.com');</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Спиктуит" (RU)','Общество с ограниченной ответственностью "Спиктуит"');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G47" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="2" t="str">
@@ -22131,28 +22302,32 @@
 Факс: +7 (863) 219-15-51
 E-mail: ug@stel.ru','');</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Стэл ЮГ " (ООО "Стэл ЮГ ") (RU)','Общество с ограниченной ответственностью "Стэл ЮГ"');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G48" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>20</v>
@@ -22161,28 +22336,32 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Стэл ЮГ" (ООО "Стэл ЮГ") (RU)','Общество с ограниченной ответственностью "Стэл ЮГ"');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>760</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="J49"/>
       <c r="K49" s="2" t="str">
@@ -22191,36 +22370,44 @@
 Телефон:  +7 (495) 77-55-123, 77-55-122
 E-mail:  stel@stel.ru','');</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L49" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Стэл-Компьютерные Системы" (RU)','Общество с ограниченной ответственностью "Стэл-Компьютерные Системы"');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="J50"/>
       <c r="K50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "ТвелвТек"','ООО "ТвелвТек"','Россия','н/д','г.Самара, пр-кт.Волжский, д.35, кв.9, 443071','');</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L50" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "ТвелвТек" (RU)','Общество с ограниченной ответственностью "ТвелвТек"');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>368</v>
       </c>
@@ -22228,19 +22415,19 @@
         <v>368</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J51"/>
       <c r="K51" s="2" t="str">
@@ -22251,8 +22438,12 @@
 E-mail:stc-spb@speechpro.com
 Факс:+7 (812) 327-92-97','');</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L51" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Центр речевых технологий"','Общество с ограниченной ответственностью "Центр речевых технологий"');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>748</v>
       </c>
@@ -22260,19 +22451,19 @@
         <v>368</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>368</v>
@@ -22281,8 +22472,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L52" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с Ограниченной Ответственностью "Центр речевых технологий" (RU)','Общество с ограниченной ответственностью "Центр речевых технологий"');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>306</v>
       </c>
@@ -22290,19 +22485,19 @@
         <v>368</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>368</v>
@@ -22311,28 +22506,32 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="L53" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Центр речевых технологий" (ООО "ЦРТ") (RU)','Общество с ограниченной ответственностью "Центр речевых технологий"');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>746</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>1262</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>1266</v>
       </c>
       <c r="K54" s="2" t="str">
         <f t="shared" si="0"/>
@@ -22341,28 +22540,32 @@
  Phone: +7(3412) 600526
  Email: info@cifrasoft.com','');</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L54" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Цифрасофт" (RU)','Общество с ограниченной ответственностью "Цифрасофт"');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>745</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J55"/>
       <c r="K55" s="2" t="str">
@@ -22373,56 +22576,64 @@
 E-mail:stc-spb@speechpro.com
 Факс:+7 (812) 327-92-97','');</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "ЦРТ-инновации" (RU)','Общество с ограниченной ответственностью "ЦРТ-инновации"');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="J56"/>
       <c r="K56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью "Эффективная энергетика"','ООО "Эффективная энергетика"','Россия','н/д','н/д','');</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="L56" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Эффективная энергетика" (RU)','Общество с ограниченной ответственностью "Эффективная энергетика"');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>285</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J57"/>
       <c r="K57" s="2" t="str">
@@ -22438,28 +22649,32 @@
 Помощь по проектам Яндекса и обращение к службе поддержки 
 yandex.ru/support','');</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью "Яндекс" (RU)','Общество с ограниченной ответственностью "Яндекс"');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>1048</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>1050</v>
       </c>
       <c r="J58"/>
       <c r="K58" s="2" t="str">
@@ -22469,59 +22684,67 @@
 E-mail: root@bssys.com
 www.bssys.com','');</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Бэнкс Софт Системс» (RU)','Общество с ограниченной ответственностью «Бэнкс Софт Системс»');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J59"/>
       <c r="K59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Войс Коммьюникэйшн»','ООО "Войс Коммьюникэйшн"','Россия','н/д','г. Москва , пер. Кожевнический 1-й, д.10, оф.3, 115114. ','');</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Войс Коммьюникэйшн» (RU)','Общество с ограниченной ответственностью «Войс Коммьюникэйшн»');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="J60"/>
       <c r="K60" s="2" t="str">
@@ -22531,31 +22754,35 @@
 info@vocalize.ru 
 ','ЗАКУПКА №0273100000117000021 Приобретение лицензионного программного обеспечения, обеспечивающего аудиосопровождение текстовых материалов подсистемы "Официальный сайт ПФР" (2017 год)');</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Воколайз» (RU)','Общество с ограниченной ответственностью «Воколайз»');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>1057</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>1059</v>
-      </c>
       <c r="H61" s="9" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="J61"/>
       <c r="K61" s="2" t="str">
@@ -22570,28 +22797,32 @@
 21.6% ЗАКРЫТОЕ АКЦИОНЕРНОЕ ОБЩЕСТВО "АШМАНОВ И ПАРТНЕРЫ" 
 10% ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ "ИНФОВОТЧ ГРУПП" ');</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Диктум» (RU)','Общество с ограниченной ответственностью «Диктум»');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="H62" s="9" t="s">
         <v>1061</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>1063</v>
       </c>
       <c r="J62"/>
       <c r="K62" s="2" t="str">
@@ -22600,28 +22831,32 @@
 E-mail: info@3itech.ru
 Адрес: 129343, Москва, проезд Серебрякова, д. 14, стр. 9, офис 11, Бизнес-центр “Silver Stone”','');</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «ДСС Лаб» (RU)','Общество с ограниченной ответственностью «ДСС Лаб» ');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G63" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="J63"/>
       <c r="K63" s="2" t="str">
@@ -22630,28 +22865,32 @@
 тел. (факс):  (343) 286-61-43, 286-54-20
 E-mail: info@krust-rus.com','');</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «КРУСТ» (RU)','Общество с ограниченной ответственностью «КРУСТ»');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>1068</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>1070</v>
       </c>
       <c r="J64"/>
       <c r="K64" s="2" t="str">
@@ -22659,28 +22898,32 @@
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Милки Бразерс Груп» ','ООО "Милки Бразерс Груп"','Россия','н/д','143441, Московская область, Красногорский район, п//о Путилково, д Путилково, 69 км МКАД, Офисно-общественный комплекс ЗАО "Гринвуд", стр 1 
 Телефон(ы): +7 (903) 798-99-87','');</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Милки Бразерс Груп» (RU)','Общество с ограниченной ответственностью «Милки Бразерс Груп» ');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="J65"/>
       <c r="K65" s="2" t="str">
@@ -22689,31 +22932,35 @@
 Телефон (495) 785-04-99
 Факс (495) 785-04-99','');</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Проект - Профессиональные Инновационные Решения» (RU)','Общество с ограниченной ответственностью «Проект - Профессиональные Инновационные Решения»');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="J66"/>
       <c r="K66" s="2" t="str">
@@ -22721,60 +22968,68 @@
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Спич Драйв»','ООО "Спич Драйв"','Россия','www.speech-drive.ru','199155, г. Санкт-Петербург, ул. Железноводская, д. 40 кв. 55','Смирнов Валентин Александров - 
 ген. директор в составе Государственной экзаменационной комиссии по основной образовательной программе высшего образования ВМ.5626.* «Прикладная и экспериментальная лингвистика» по направлению подготовки 45.04.02 «Лингвистика», по уровню магистратура на 2017 год:в  Санкт-Петербургском государственном университете');</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Спич Драйв» (RU)','Общество с ограниченной ответственностью «Спич Драйв»');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>1077</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>1079</v>
       </c>
       <c r="J67"/>
       <c r="K67" s="2" t="str">
-        <f t="shared" ref="K67:K130" si="1">IF(J67&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B67&amp;"',"&amp;"'"&amp;D67&amp;"',"&amp;"'"&amp;F67&amp;"',"&amp;"'"&amp;G67&amp;"',"&amp;"'"&amp;H67&amp;"',"&amp;"'"&amp;I67&amp;"'"&amp;");")</f>
+        <f t="shared" ref="K67:K130" si="2">IF(J67&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B67&amp;"',"&amp;"'"&amp;D67&amp;"',"&amp;"'"&amp;F67&amp;"',"&amp;"'"&amp;G67&amp;"',"&amp;"'"&amp;H67&amp;"',"&amp;"'"&amp;I67&amp;"'"&amp;");")</f>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Сурдофон»','ООО "Сурдофон"','Россия','www.surdophone.ru','Россия, Новосибирск, ул. Николаева, 11 (Академпарк), ООО "Сурдофон", тел./факс +7 (383) 363 30 77/78 info@surdophone.com','');</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L67" s="2" t="str">
+        <f t="shared" ref="L67:L130" si="3">"INSERT name_ref  ( `src_name`, `full_name`) VALUES("&amp;"'"&amp;A67&amp;"',"&amp;"'"&amp;B67&amp;"'"&amp;");"</f>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Сурдофон» (RU)','Общество с ограниченной ответственностью «Сурдофон»');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G68" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>1082</v>
-      </c>
       <c r="H68" s="9" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="J68"/>
       <c r="K68" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Телефонные системы»','ООО "Телефонные системы"','Россия','www.komunikator.ru',' Город:  Йошкар-Ола
 Адрес:  Петрова ул. 1
 Телефон:  +78362337050
@@ -22782,35 +23037,39 @@
 ВКонтакте:  https://vk.com/komunikator_ru
 Facebook:  https://facebook.com/KomunikatorRu ','');</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="L68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Телефонные системы» (RU)','Общество с ограниченной ответственностью «Телефонные системы»');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>1084</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>1085</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>1086</v>
       </c>
       <c r="J69"/>
       <c r="K69" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью «Фактор связи» ','ООО "Фактор связи"','Россия','н/д','Адрес 
 125047, МОСКВА Г, ТВЕРСКАЯ-ЯМСКАЯ 3-Я УЛ, ДОМ 39//5, СТРОЕНИЕ 1
 Телефон 
@@ -22826,8 +23085,12 @@
 http://www.sitronics.com
 109044 Москва, ул. Мельникова, д. 29');</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Фактор связи» (ООО «Фактор связи») (RU)','Общество с ограниченной ответственностью «Фактор связи» ');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>16</v>
       </c>
@@ -22835,29 +23098,33 @@
         <v>368</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>368</v>
       </c>
       <c r="K70" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L70" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Центр речевых технологий» (RU)','Общество с ограниченной ответственностью "Центр речевых технологий"');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>0</v>
       </c>
@@ -22865,156 +23132,176 @@
         <v>368</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>368</v>
       </c>
       <c r="K71" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «Центр речевых технологий» (ООО «ЦРТ») (RU)','Общество с ограниченной ответственностью "Центр речевых технологий"');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="E72"/>
       <c r="F72" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>745</v>
       </c>
       <c r="K72" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью «ЦРТ-инновации» (RU)','Общество с ограниченной ответственностью "ЦРТ-инновации"');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>761</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>1091</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>1089</v>
       </c>
       <c r="J73"/>
       <c r="K73" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью ЛЕКСИ','ООО ЛЕКСИ','Россия','lexybot.com','E-mail: sales@lexybot.com
 Телефоны: +7 (495) 640–57–35
 Адрес: 105037, г. Москва, 1-я Парковая ул., 7, офис 501
 Сайт: lexybot.com
 Соцсети: https://www.facebook.com/lexyRobot , https://vk.com/lexybot , https://twitter.com/robotLexy , https://www.linkedin.com/company/llc-lexy , instagram.com','Резидент Сколково');</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью ЛЕКСИ (ООО ЛЕКСИ) (RU)','Общество с ограниченной ответственностью ЛЕКСИ');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>771</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="J74"/>
       <c r="K74" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Общество с ограниченной ответственностью научно-производственная фирма "Кристалл"',' ООО "НПФ "КРИСТАЛЛ"','Россия','www.npf-crystall.ru','440011, г. Пенза, Пр. Победы, дом 13 
 Тел. (841-2) 48-28-90
 факс (841-2) 48-28-90
 e-mail: crystall@sura.ru','');</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общество с ограниченной ответственностью научно-производственная фирма "Кристалл" (RU)','Общество с ограниченной ответственностью научно-производственная фирма "Кристалл"');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>388</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>771</v>
       </c>
       <c r="K75" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Общестов с ограниченной ответственностью научно-производственная фирма "Крист алл" (RU)','Общество с ограниченной ответственностью научно-производственная фирма "Кристалл"');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>265</v>
       </c>
@@ -23022,238 +23309,266 @@
         <v>368</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>368</v>
       </c>
       <c r="K76" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ООО "Центр речевых технологий" (RU)','Общество с ограниченной ответственностью "Центр речевых технологий"');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>743</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="J77"/>
       <c r="K77" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Открытое акционерное общество "Корпорация "Фазотрон - Научно-исследовательский институт радиостроения"','АО "Фазотрон-НИИР"','Россия','phazotron.kret.com','123557, Москва, Электрический переулок, 1.
  info@phazotron.com
  8 (495) 927-07-77','');</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Открытое акционерное общество "Корпорация "Фазотрон - Научно-исследовательский институт радиостроения" (RU)','Открытое акционерное общество "Корпорация "Фазотрон - Научно-исследовательский институт радиостроения"');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>362</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>743</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Открытое акционерное общество "Корпорация "Фазотрон-Научно-исследовательский институт радиостроения" (RU)','Открытое акционерное общество "Корпорация "Фазотрон - Научно-исследовательский институт радиостроения"');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>1109</v>
-      </c>
       <c r="D79" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G79" t="s">
         <v>1108</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G79" t="s">
-        <v>1110</v>
-      </c>
       <c r="H79" s="9" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J79"/>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Открытое акционерное общество «Инновационно-технологический центр «Система-Саров» ','АО ИТЦ «Система-Саров»','Россия','sarov-itc.ru','Адрес: 607328, Нижегородская обл., Дивеевский р-н, п. Сатис, 
 ул. Парковая д.3
 Телефон: 8 (83130) 676-20
 Факс: 8 (83130) 676-21
 Эл. почта: info@sarov-itc.ru','');</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Открытое акционерное общество «Инновационно-технологический центр «Система-Саров» (RU)','Открытое акционерное общество «Инновационно-технологический центр «Система-Саров» ');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>1109</v>
-      </c>
       <c r="D80" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G80" t="s">
         <v>1108</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G80" t="s">
-        <v>1110</v>
-      </c>
       <c r="H80" s="9" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>83</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L80" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Открытое акционерное общество «Инновационный технологический центр «Система-Саров» (RU)','Открытое акционерное общество «Инновационно-технологический центр «Система-Саров» ');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>1115</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="J81"/>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Открытое акционерное общество «Федеральная сетевая компания Единой энергетической системы»','ПАО «ФСК ЕЭС»','Россия','www.fsk-ees.ru','Юридический адрес и адрес для почтовой отправки корреспонденции: 117630, г. Москва, ул. Академика Челомея, 5А 
 Телефоны: 
 Единый информационный центр: 8-800-200-18-81 
 Факс: +7 (495) 710-96-55 
 Е-mail: info@fsk-ees.ru','');</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L81" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Открытое акционерное общество «Федеральная сетевая компания Единой энергетической системы» (RU)','Открытое акционерное общество «Федеральная сетевая компания Единой энергетической системы»');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="J82"/>
       <c r="K82" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Открытое акционерное общество научно-производственный комплекс «РУССКАЯ РАДИОЭЛЕКТРОНИКА»','ОАО НПК «Русская радиоэлектроника»','Россия','н/д','Индекс: 367017
 Адрес: Г МАХАЧКАЛА,УЛ БЕЙБУЛАТОВА Д 12 
 Юридический адрес: 367000, РЕСПУБЛИКА ДАГЕСТАН, Г. МАХАЧКАЛА, УЛ БЕЙБУЛАТОВА Д 12 
 Телефон: 8 (8722) 67-38-79, 8 (988) 291-23-70','');</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L82" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Открытое акционерное общество научно-производственный комплекс «РУССКАЯ РАДИОЭЛЕКТРОНИКА» (RU)','Открытое акционерное общество научно-производственный комплекс «РУССКАЯ РАДИОЭЛЕКТРОНИКА»');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>298</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>298</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G83" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J83"/>
       <c r="K83" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Акционерное общество «Пензенский научно-исследовательский электротехнический институт»','АО «ПНИЭИ»','Россия','пниэи.рф','Адрес:
 440000, г. Пенза, ул. Советская, д. 9
 Телефоны:
@@ -23261,93 +23576,105 @@
 Факс: +7 (8412) 59-33-5
 E-mail: pniei@penza.ru','');</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L83" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Пензенский научно-исследовательский электротехнический институт','Акционерное общество «Пензенский научно-исследовательский электротехнический институт»');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>281</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="H84" s="9" t="s">
         <v>1129</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>1131</v>
-      </c>
       <c r="I84" s="2" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="J84"/>
       <c r="K84" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Поволжский государственный университет телекоммуникаций и информатики"','ФГБОУ ВО ПГУТИ','Россия','www.psuti.ru','Адрес: 443010, г. Самара, ул, Л.Толстого, д. 23.
 тел. (846) 339-11-11, email: abitur@psuti.ru','переименована');</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L84" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Поволжская государственная академия телекоммуникаций и информатики','Федеральное государственное бюджетное образовательное учреждение высшего образования "Поволжский государственный университет телекоммуникаций и информатики"');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C85" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>1132</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="H85" s="9" t="s">
         <v>1133</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>1135</v>
       </c>
       <c r="J85"/>
       <c r="K85" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Российская Федерация, от имени которой выступает Министерство внутренних дел Российской Федерации','МВД РФ','Россия','мвд.рф','119991, г. Москва, ул. Житная, 16
 СПРАВОЧНЫЙ ТЕЛЕФОН-АВТОИНФОРМАТОР: 8 (495) 667-04-02','');</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L85" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Российская Федерация, от имени которой выступает Министерство внутренних дел Российской Федерации (RU)','Российская Федерация, от имени которой выступает Министерство внутренних дел Российской Федерации');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>1139</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>1140</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>1141</v>
       </c>
       <c r="J86"/>
       <c r="K86" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Российская Федерация, от имени которой выступает Министерство связи и массовых коммуникаций Российской Федерации','Минкомсвязь России','Россия','minsvyaz.ru','Справочная: +7 495 771-80-00, 8 800 222-15-01 
 Справки по документам: +7 495 771-81-00
 Факс: +7 495 771-80-02
@@ -23357,8 +23684,12 @@
 Instagram: @minsvyaz_official
 Адрес: 125375, г. Москва, ул. Тверская, д. 7','');</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L86" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Российская Федерация, от имени которой выступает Министерство связи и массовых коммуникаций Российской Федерации (RU)','Российская Федерация, от имени которой выступает Министерство связи и массовых коммуникаций Российской Федерации');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>772</v>
       </c>
@@ -23372,18 +23703,18 @@
         <v>872</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="H87" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="J87"/>
       <c r="K87" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Samsung Electronics Co., Ltd.','Samsung Electronics Co., Ltd.','КНДР','www.samsung.com','129 Samsung-Ro
+        <f t="shared" si="2"/>
+        <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Samsung Electronics Co., Ltd.','Samsung Electronics Co., Ltd.','Республика Корея','www.samsung.com','129 Samsung-Ro
 Maetan-3dong
 Yeongtong-gu
 Suwon,  443-742
@@ -23392,8 +23723,12 @@
 Телефон: 8-800-555-55-33 c 9.00 до 21.00 без выходных
 Электронная почта: b2bdeals@partners.samsung.com','');</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L87" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('САМСУНГ ЭЛЕКТРОНИКС Ко.','Samsung Electronics Co., Ltd.');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>294</v>
       </c>
@@ -23407,113 +23742,125 @@
         <v>872</v>
       </c>
       <c r="F88" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="H88" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>772</v>
       </c>
       <c r="K88" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L88" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('САМСУНГ ЭЛЕКТРОНИКС КО., ЛТД. (KR)','Samsung Electronics Co., Ltd.');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H89" s="9" t="s">
         <v>1142</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H89" s="9" t="s">
-        <v>1144</v>
       </c>
       <c r="J89"/>
       <c r="K89" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Санкт-Петербург, от имени которого выступает Комитет по информатизации и связи','Комитет по информатизации и связи Санкт-Петербурга','Россия','kis.gov.spb.ru','Санкт-Петербург, Смольный, 191060.
 Телефон приемной : +7 812 576 71 23
 Факс: +7 812 576 73 45
 Канцелярия : +7 812 576 44 06','');</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L89" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Санкт-Петербург, от имени которого выступает Комитет по информатизации и связи (RU)','Санкт-Петербург, от имени которого выступает Комитет по информатизации и связи');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>339</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>881</v>
-      </c>
       <c r="G90" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J90"/>
       <c r="K90" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Softhus Sp. z o.o.','Softhus Sp. z o.o.','Польша','н/д','ul. Orląt Lwowskich 15
 81-456 Gdynia
 woj. Pomorskie
 tel. 506 315 977
 mail@softhus.com','');</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L90" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('СОФТХУС СП.З.О.О. (PL)','Softhus Sp. z o.o.');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>752</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>797</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J91"/>
       <c r="K91" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('SpeechWorks International, Inc.','SpeechWorks International, Inc.','США','www.nuance.com','695 Atlantic Avenue
 Boston, MA 02111
 United States
@@ -23522,32 +23869,36 @@
 Fax:
 617-428-1122','As of August 11, 2003, SpeechWorks International, Inc. was acquired by Nuance Communications, Inc. ');</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L91" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('СПИЧВОРКС ИНТЕРНЭШНЛ, ИНК. (US)','SpeechWorks International, Inc.');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>797</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J92"/>
       <c r="K92" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Speechfx, Inc.','Speechfx, Inc.','США','www.speechfxinc.com','321 East State Street 
 Suite 10
 American Fork, UT 84003 
@@ -23555,32 +23906,36 @@
 Email: sales@speechfxinc.com 
 Investor Relations: ir@speechfxinc.com','');</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L92" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('СПИЧЭфИкс, ИНК. (US)','Speechfx, Inc.');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>768</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="H93" s="2" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J93"/>
       <c r="K93" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Telefonaktiebolaget L M Ericsson  (publ)','Telefonaktiebolaget L M Ericsson','Швеция','www.ericsson.com','Torshamnsgatan 21
 Kista
 Stockholm,  164 83
@@ -23588,32 +23943,36 @@
 Phone:
 46 1 07 19 00 00','');</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="L93" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ТЕЛЕФОНАКТИЕБОЛАГЕТ ЛМ ЭРИКССОН (пабл) (SE)','Telefonaktiebolaget L M Ericsson  (publ)');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>765</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="J94"/>
       <c r="K94" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Учреждение Российской академии наук Институт проблем управления им. В.А. Трапезникова РАН','ИПУ РАН','Россия','www.ipu.ru','ИПУ РАН
 Россия, 117997, Москва
 ул. Профсоюзная, д. 65
@@ -23621,341 +23980,385 @@
 Факс: +7 495 334-93-40, +7 499 234-64-26
 E-mail: dan@ipu.ru','');</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L94" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Учреждение Российской академии наук Институт проблем управления им. В.А. Трапезникова РАН (RU)','Учреждение Российской академии наук Институт проблем управления им. В.А. Трапезникова РАН');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>1150</v>
-      </c>
       <c r="C95" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>1155</v>
       </c>
-      <c r="D95" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>1157</v>
-      </c>
       <c r="H95" s="9" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J95"/>
       <c r="K95" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное научное учреждение "Центр информационных технологий и систем органов исполнительной власти"','ФГАНУ ЦИТиС','Россия','www.citis.ru','123557, Москва, Пресненский Вал, 19, стр. 1
 Телефон канцелярии:+7 (495) 737-01-31, +7 (499) 702-81-20
 Факс:+7 (495) 737-01-50, +7 (499) 702-82-45
 E-mail канцелярии:citis@inevm.ru','');</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L95" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное автономное научное учреждение "Центр информационных технологий и систем органов исполнительной власти" (ФГАНУ ЦИТиС) (RU)','Федеральное государственное автономное научное учреждение "Центр информационных технологий и систем органов исполнительной власти"');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J96"/>
       <c r="K96" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего образования «Санкт-Петербургский национальный исследовательский университет информационных технологий, механики и оптики» ','Университет ИТМО','Россия','www.ifmo.ru','197101, г. Санкт-Петербург, Кронверкский проспект, д.49.
  Общий отдел Университета ИТМО
 телефон: +7 (812) 232-97-04
 факс: +7 (812) 232-23-07','');</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L96" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('федеральное государственное автономное образовательное учреждение высшего образования «Санкт-Петербургский национальный исследовательский университет информационных технологий, механики и оптики» (RU)','Федеральное государственное автономное образовательное учреждение высшего образования «Санкт-Петербургский национальный исследовательский университет информационных технологий, механики и оптики» ');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="J97"/>
       <c r="K97" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего образования «Северо-Кавказский федеральный университет»','ФГАОУ ВО СКФУ','Россия','www.ncfu.ru','ФГАОУ ВО «Северо-Кавказский федеральный университет»
 Адрес: 355009, г. Ставрополь, ул. Пушкина, 1
 Телефон: 8 (8652) 95-68-08
 Факс: 8 (8652) 95-68-03
 E-mail: info@ncfu.ru ','');</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L97" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное автономное образовательное учреждение высшего образования «Северо-Кавказский федеральный университет» (RU)','Федеральное государственное автономное образовательное учреждение высшего образования «Северо-Кавказский федеральный университет»');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G98" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="H98" s="9" t="s">
         <v>1165</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>1167</v>
       </c>
       <c r="J98"/>
       <c r="K98" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('федеральное государственное автономное образовательное учреждение высшего образования «Южный федеральный университет»','Южный Федеральный Университет','Россия','www.sfedu.ru','(+7 863) 218-40-00
 Почтовый адрес: 344006 г. Ростов-на-Дону, ул. Б. Садовая, 105/42
 Электронный адрес: info@sfedu.ru','');</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L98" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('федеральное государственное автономное образовательное учреждение высшего образования «Южный федеральный университет» (Южный федеральный университет) (RU)','федеральное государственное автономное образовательное учреждение высшего образования «Южный федеральный университет»');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="J99"/>
       <c r="K99" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего профессионального образования "Белгородский государственный национальный исследовательский университет"','НИУ БелГУ','Россия','www.bsu.edu.ru','оссия, 
 308015, г. Белгород, ул. Победы, 85, 
 Тел: (4722) 30-12-11 
 Факс: (4722) 30-10-12, (4722) 30-12-13','');</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="L99" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное автономное образовательное учреждение высшего профессионального образования "Белгородский государственный национальный исследовательский университет" (RU)','Федеральное государственное автономное образовательное учреждение высшего профессионального образования "Белгородский государственный национальный исследовательский университет"');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>296</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="F100" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G100" t="s">
+        <v>940</v>
+      </c>
+      <c r="H100" s="9" t="s">
         <v>945</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G100" t="s">
-        <v>942</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>947</v>
-      </c>
       <c r="I100" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J100" s="2" t="s">
         <v>310</v>
       </c>
       <c r="K100" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L100" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное автономное образовательное учреждение высшего профессионального образования "Казанский (Приволжский) федеральный университет" (ФГАОУ ВПО КФУ) (RU)','Федеральное государственное автономное образовательное учреждение высшего образования "Казанский (Приволжский) федеральный университет"');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J101"/>
       <c r="K101" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное автономное образовательное учреждение высшего профессионального образования «Дальневосточный федеральный университет»','ФГАОУ ВО ДВФУ','Россия','www.dvfu.ru','Почтовый адрес ДВФУ: Россия, 690091, г. Владивосток, ул. Суханова, 8.
 Место нахождения Университета: г. Владивосток о. Русский, поселок Аякс - 10, кампус ДВФУ.
 Телефон: (423) 265-24-29;  (423) 243-34-72, факс (423) 243-23-15
 E-mail: rectorat@dvfu.ru','');</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L101" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное автономное образовательное учреждение высшего профессионального образования «Дальневосточный федеральный университет» (ДВФУ) (RU)','Федеральное государственное автономное образовательное учреждение высшего профессионального образования «Дальневосточный федеральный университет»');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="J102"/>
       <c r="K102" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Чувашский государственный университет имени И.Н.Ульянова"',' ФГБОУ ВО «ЧГУ им. И.Н. Ульянова»','Россия','www.chuvsu.ru','Адрес университета: 428015, Россия, Чувашская Республика, город Чебоксары, Московский проспект, д. 15. Телефон: (8352) 58-30-36, 45-23-39 доп.37-50. ','');</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L102" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Чувашский государственный университет имени И.Н.Ульянова" (RU)','Федеральное государственное бюджетное образовательное учреждение высшего образования "Чувашский государственный университет имени И.Н.Ульянова"');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="H103" s="9" t="s">
         <v>1181</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>1183</v>
       </c>
       <c r="J103"/>
       <c r="K103" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования «Пензенский государственный университет» ','ФГБОУ ВО ПГУ','Россия','www.pnzgu.ru','Юридический адрес образовательной организации: 440026 г. Пенза, ул. Красная, 40 
 Контактная информация:
 Тел: (8412) 56-35-11 (приемная)
 e-mail: rector@pnzgu.ru','');</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L103" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования «Пензенский государственный университет» (ФГБОУ ВО «Пензенский государственный университет») (RU)','Федеральное государственное бюджетное образовательное учреждение высшего образования «Пензенский государственный университет» ');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>1190</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="J104"/>
       <c r="K104" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования «Российский государственный педагогический университет им. А. И. Герцена»','ФГБОУ ВО РГПУ им. А.И. Герцена','Россия','www.herzen.spb.ru','191186, Санкт-Петербург, набережная реки Мойки, д.48.
 Телефон: (812) 312-44-92
 Факс: (812) 312-11-95
 E mail: mail@herzen.spb.ru ','');</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('федеральное государственное бюджетное образовательное учреждение высшего образования «Российский государственный педагогический университет им. А. И. Герцена» (RU)','Федеральное государственное бюджетное образовательное учреждение высшего образования «Российский государственный педагогический университет им. А. И. Герцена»');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C105" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G105" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>1192</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>1195</v>
-      </c>
       <c r="H105" s="9" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="J105"/>
       <c r="K105" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования "Воронежский государственный университет"','ФГБУ ВПО ВГУ','Россия','www.vsu.ru','Адрес
 394018, Россия, г. Воронеж, Университетская площадь, 1
 Телефон
@@ -23967,125 +24370,141 @@
 E-mail
 office@main.vsu.ru','');</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="L105" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования "Воронежский государственный университет" (ФГБУ ВПО "ВГУ") (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования "Воронежский государственный университет"');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>754</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G106" s="6" t="s">
         <v>1180</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="H106" s="9" t="s">
         <v>1181</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>1182</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>1183</v>
       </c>
       <c r="J106" s="4" t="s">
         <v>66</v>
       </c>
       <c r="K106" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования "Пензенский государственный университет" (ФГБОУ ВПО "Пензенский государственный университет") (RU)','Федеральное государственное бюджетное образовательное учреждение высшего образования «Пензенский государственный университет» ');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="D107" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H107" s="9" t="s">
         <v>1203</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H107" s="9" t="s">
-        <v>1205</v>
       </c>
       <c r="J107"/>
       <c r="K107" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Алтайский государственный университет»','ФГБОУ ВО АлтГУ','Россия','www.asu.ru','Юридический адрес: 656049, Барнаул, пр. Ленина, 61
 Тел.: (385-2) 291-291
 Факс: (385-2) 667-626
 E-mail: rector@asu.ru
 Сайт: www.asu.ru','');</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L107" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Алтайский государственный университет» (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Алтайский государственный университет»');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="J108"/>
       <c r="K108" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Владивостокский государственный университет экономики и сервиса»','ФГБОУ ВО ВГУЭС','Россия','www.vvsu.ru','Адрес: 690014, г. Владивосток, ул. Гоголя, 41
 Телефон приемной ректората: +7 423 240-42-89
 Телефон помощника ректора: +7 423 240-40-00
 E-mail: rector@vvsu.ru','');</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L108" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Владивостокский государственный университет экономики и сервиса» (ВГУЭС) (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Владивостокский государственный университет экономики и сервиса»');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="J109"/>
       <c r="K109" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Ижевский государственный технический университет имени М.Т. Калашникова»','ФГБОУ ВПО "ИжГТУ имени М.Т. Калашникова"','Россия','www.istu.ru','Контакты
 Адрес: 426069, Удмуртская Республика, г. Ижевск, ул. Студенческая, д. 7
 Единый многоканальный телефон:
@@ -24093,218 +24512,246 @@
 Факс: (3412) 50-40-55
 Эл. почта: info@istu.ru','');</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L109" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Ижевский государственный технический университет имени М.Т. Калашникова» (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Ижевский государственный технический университет имени М.Т. Калашникова»');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G110" s="6" t="s">
         <v>1215</v>
       </c>
-      <c r="F110" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G110" s="6" t="s">
-        <v>1217</v>
-      </c>
       <c r="H110" s="9" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="J110"/>
       <c r="K110" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Московский государственный лингвистический университет»','ФГБОУ ВПО МГЛУ','Россия','www.linguanet.ru','Место нахождения вуза: 119034, г. Москва, Остоженка 38, стр. 1
 Справочный телефон: 8-495-6375597 
 Факс: 8 (499) 245-19-90  
 Электронная почта: info@linguanet.ru','');</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L110" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Московский государственный лингвистический университет» (ФГБОУ ВПО МГЛУ) (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Московский государственный лингвистический университет»');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="J111"/>
       <c r="K111" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Санкт-Петербургский государственный университет»','ФГБОУ ВПО СПбГУ','Россия','spbu.ru','199034, Россия, Санкт-Петербург, Университетская наб., д. 7–9
 Тел: +7 (812) 328–20–00
 Эл. почта: spbu@spbu.ru
 Cайт: http://spbu.ru','');</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L111" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Санкт-Петербургский государственный университет» (СПбГУ) (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Санкт-Петербургский государственный университет»');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="J112"/>
       <c r="K112" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Сибирский государственный аэрокосмический университет имени академика М.Ф. Решетнева»','ФГБОУ ВПО СибГУ им. М.Ф. Решетнева','Россия','www.sibsau.ru','660037, Сибирский федеральный округ, Красноярский край, город Красноярск, проспект им. газеты Красноярский рабочий, дом 31
 тел.: 8 (391) 264-00-14 - приемная ректора
 факс: 8 (391) 264-47-09
 e-mail: info@sibsau.ru','');</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="L112" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Сибирский государственный аэрокосмический университет имени академика М.Ф. Решетнева» (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Сибирский государственный аэрокосмический университет имени академика М.Ф. Решетнева»');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="J113" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K113" s="2" t="e">
-        <f>IF(#REF!&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B113&amp;"',"&amp;"'"&amp;D113&amp;"',"&amp;"'"&amp;F113&amp;"',"&amp;"'"&amp;G113&amp;"',"&amp;"'"&amp;H113&amp;"',"&amp;"'"&amp;J113&amp;"'"&amp;");")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="K113" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L113" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Сибирский государственный аэрокосмический университет имени академика М.Ф. Решетнева» (СибГАУ) (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Сибирский государственный аэрокосмический университет имени академика М.Ф. Решетнева»');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="J114"/>
       <c r="K114" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Хакасский государственный университет им. Н.Ф. Катанова» ','ФГБОУ ВО ХГУ им. Н.Ф. Катанова','Россия','www.khsu.ru','655000, Республика Хакасия, г. Абакан, ул. Ленина, 90;
 Телефоны: +7(3902)243018, +7(3902)243364 
 Факс: +7(3902)243364
 Электронная почта:  univer@khsu.ru ,  rektor@khsu.ru','');</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L114" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Хакасский государственный университет им. Н.Ф. Катанова» (RU)','Федеральное государственное бюджетное образовательное учреждение высшего профессионального образования «Хакасский государственный университет им. Н.Ф. Катанова» ');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="H115" s="9" t="s">
         <v>1231</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G115" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>1233</v>
       </c>
       <c r="J115"/>
       <c r="K115" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное учреждение науки Институт проблем управления им. В.А. Трапезникова Российской академии наук','ФГБУН ИПУ РАН','Россия','www.ipu.ru','Россия, 117997, Москва
 ул. Профсоюзная, д. 65
 Телефон: +7 495 334-89-10
 Факс: +7 495 334-93-40, +7 499 234-64-26
 E-mail: dan@ipu.ru','');</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L115" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное учреждение науки Институт проблем управления им. В.А. Трапезникова Российской академии наук (ИПУ РАН) (RU)','Федеральное государственное бюджетное учреждение науки Институт проблем управления им. В.А. Трапезникова Российской академии наук');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J116"/>
       <c r="K116" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное учреждение науки Санкт-Петербургский институт информатики и автоматизации Российской академии наук','ФГБУН СПИИРАН','Россия','www.spiiras.nw.ru','АДРЕС
 199178, Россия, Санкт-Петербург,
 14 линия, дом 39
@@ -24315,251 +24762,287 @@
 ЭЛЕКТРОННАЯ ПОЧТА
 spiiran@iias.spb.su','');</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L116" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное учреждение науки Санкт-Петербургский институт информатики и автоматизации Российской академии наук (RU)','Федеральное государственное бюджетное учреждение науки Санкт-Петербургский институт информатики и автоматизации Российской академии наук');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="J117" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K117" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L117" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное бюджетное учреждение науки Санкт-Петербургский институт информатики и автоматизации Российской академии наук (СПИИРАН) (RU)','Федеральное государственное бюджетное учреждение науки Санкт-Петербургский институт информатики и автоматизации Российской академии наук');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>326</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>923</v>
+        <v>1266</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>921</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>336</v>
       </c>
       <c r="K118" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное казенное военное образовательное учреждение высшего образования "Академия Федеральной службы охраны Российской Федерации" (Академия ФСО России) (RU)','Федеральное государственное казенное образовательное учреждение высшего профессионального образования "Академия Федеральной службы охраны Российской Федерации"');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>304</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>1243</v>
-      </c>
       <c r="D119" s="2" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="J119"/>
       <c r="K119" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-воздушных сил "Военно-воздушная академия имени профессора Н.Е. Жуковского и Ю.А. Гагарина" Министерства обороны Российской Федерации','ВУНЦ ВВС ВВА','Россия','академия-ввс.рф','394064, г. Воронеж, ул. Старых Большевиков, 54 «А»
 8 (473) 226-47-52 - факс
 8 (473) 244-76-04 - факс
 E-mail:  vaiu@mil.ru','');</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-воздушных сил "Военно-воздушная академия имени профессора Н.Е. Жуковского и Ю.А. Гагарина" (г. Воронеж) Министерства обороны Российской Федерации (RU)','Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-воздушных сил "Военно-воздушная академия имени профессора Н.Е. Жуковского и Ю.А. Гагарина" Министерства обороны Российской Федерации');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>328</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>1248</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="H120" s="9" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="J120"/>
       <c r="K120" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-морского Флота "Военно-морская академия имени адмирала флота Советского Союза Н.Г. Кузнецова"','ВУНЦ ВМФ Военно-морская академия','Россия','vma.mil.ru','Адрес: 197045, г. Санкт-Петербург, Ушаковская набережная, д. 17/1
 Телефоны: 8 (812) 496-16-18(дежурный); 8 (812) 431-92-44, 430-66-24 (приёмная начальника)
 Email: vunc-vmf@mil.ru','');</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-морского Флота "Военно-морская академия имени адмирала флота Советского Союза Н.Г. Кузнецова" (RU)','Федеральное государственное казенное военное образовательное учреждение высшего профессионального образования "Военный учебно-научный центр Военно-морского Флота "Военно-морская академия имени адмирала флота Советского Союза Н.Г. Кузнецова"');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>1252</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="H121" s="9" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="J121"/>
       <c r="K121" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное казенное образовательное учреждение высшего профессионального образования «Воронежский институт Министерства внутренних дел Российской Федерации»',' ФГКОУ ВПО "Воронежский институт МВД России"','Россия','www.vimvd.ru','телефон +7 (473) 247-67-07
 vrnin@mvd.ru
 394065, г. Воронеж, пр-т Патриотов, 53','');</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное казенное образовательное учреждение высшего профессионального образования «Воронежский институт Министерства внутренних дел Российской Федерации» (RU)','Федеральное государственное казенное образовательное учреждение высшего профессионального образования «Воронежский институт Министерства внутренних дел Российской Федерации»');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>763</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C122" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G122" s="6" t="s">
         <v>1253</v>
       </c>
-      <c r="D122" s="2" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>1257</v>
-      </c>
       <c r="H122" s="9" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="J122"/>
       <c r="K122" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное научное учреждение научно-исследовательский институт "Специализированные вычислительные устройства защиты и автоматика"','ФГАНУ НИИ "Спецвузавтоматика"','Россия','www.niisva.su','344011, г. Ростов-на-Дону, ул. Города Волос, д. 6, а/я 488;
 тел./факс +7 (863) 201-28-17 (г. Ростов-на-Дону)
 тел. +7 (495) 705-93-21 (г. Москва)
 тел.:+7(960) 467-08-80, +7(906)-180-02-66
 info@niisva.org','');</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное научное учреждение научно-исследовательский институт "Специализированные вычислительные устройства защиты и автоматика" (RU)','Федеральное государственное научное учреждение научно-исследовательский институт "Специализированные вычислительные устройства защиты и автоматика"');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>360</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>763</v>
       </c>
       <c r="K123" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="L123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное научное учреждение научно-исследовательский институт "Специализированный вычислительные устройства защиты и автоматика" (RU)','Федеральное государственное научное учреждение научно-исследовательский институт "Специализированные вычислительные устройства защиты и автоматика"');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>350</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="J124" s="4" t="s">
         <v>70</v>
       </c>
       <c r="K124" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное образовательное учреждение высшего профессионального образования "Чувашский государственный университет имени И.Н. Ульянова" (RU)','Федеральное государственное бюджетное образовательное учреждение высшего образования "Чувашский государственный университет имени И.Н.Ульянова"');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>271</v>
       </c>
@@ -24567,57 +25050,61 @@
         <v>271</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="J125"/>
       <c r="K125" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное унитарное предприятие Ленинградский отраслевой научно-исследовательский институт связи','ФГУП ЛО ЦНИИС','Россия','loniis.ru','96128, Россия, Санкт-Петербург, ул. Варшавская, 11.
 тел.: (812) 369-38-67
 факс: (812) 369-38-78
 e-mail: info@loniis.ru','');</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="L125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Федеральное государственное унитарное предприятие Ленинградский отраслевой научно-исследовательский институт связи','Федеральное государственное унитарное предприятие Ленинградский отраслевой научно-исследовательский институт связи');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>899</v>
-      </c>
       <c r="D126" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>797</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H126" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="I126" s="2" t="s">
         <v>900</v>
-      </c>
-      <c r="I126" s="2" t="s">
-        <v>901</v>
       </c>
       <c r="J126"/>
       <c r="K126" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Ford Global Technologies, LLC','Ford Global Technologies','США','н/д','330 Town Center Drive
 Fairlane Plaza South
 Suite 800
@@ -24628,32 +25115,36 @@
 Fax:
 313-574-0951','Ford Global Technologies, LLC owns, manages and commercializes patents and copyrights for Ford Motors.');</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+      <c r="L126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Форд Глобал Технолоджис, ЛЛК (US)','Ford Global Technologies, LLC');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>335</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>905</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>906</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>822</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J127"/>
       <c r="K127" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Fraunhofer-Gesellschaft zur Förderung der Angewandten Forschung e.V.','Fraunhofer-Gesellschaft','Германия','www.fraunhofer.de','Mailing address
 Postfach 20 07 33 
 80007 Munich 
@@ -24665,32 +25156,36 @@
 80686 Munich 
 Germany','');</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ФРАУНХОФЕР-ГЕЗЕЛЛЬШАФТ ЦУР ФЕРДЕРУНГ ДЕР АНГЕВАНДТЕН ФОРШУНГ Е.Ф. (DE)','Fraunhofer-Gesellschaft zur Förderung der Angewandten Forschung e.V.');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>343</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>893</v>
+      </c>
+      <c r="H128" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>894</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>908</v>
       </c>
       <c r="J128"/>
       <c r="K128" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Ericsson AB','Ericsson AB','Швеция','www.ericsson.com','Torshamnsgatan 21
 Kista,  164 83
 Sweden
@@ -24699,32 +25194,36 @@
 Fax:
 46 87 52 80 56','');</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="L128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ЭРИКССОН АБ (SE)','Ericsson AB');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>292</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>797</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="J129"/>
       <c r="K129" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Ericsson Inc.','Ericsson Inc.','США','www.ericsson.com/us','6300 Legacy Drive
 Plano, TX 75024
 United States
@@ -24733,166 +25232,190 @@
 Fax:
 972-583-2273','');</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('ЭРИКССОН ИНК. (US)','Ericsson Inc.');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>1278</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="H130" s="9" t="s">
         <v>1279</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H130" s="9" t="s">
-        <v>1283</v>
-      </c>
       <c r="K130" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования "Московский государственный технический университет имени Н.Э. Баумана"','ФГБОУ ВО МГТУ им.  Н.Э. Баумана','Россия','www.bmstu.ru','г. Москва, 2-я Бауманская ул., д. 5, стр. 1
 Почтовый индекс: 105005
 Тел.: (499) 263 63 91
 Факс: (499) 267 48 44
 E-mail: bauman@bmstu.ru','');</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('МГТУ им. Баумана','Федеральное государственное бюджетное образовательное учреждение высшего образования "Московский государственный технический университет имени Н.Э. Баумана"');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="K131" s="2" t="str">
-        <f t="shared" ref="K131:K134" si="2">IF(J131&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B131&amp;"',"&amp;"'"&amp;D131&amp;"',"&amp;"'"&amp;F131&amp;"',"&amp;"'"&amp;G131&amp;"',"&amp;"'"&amp;H131&amp;"',"&amp;"'"&amp;I131&amp;"'"&amp;");")</f>
+        <f t="shared" ref="K131:K134" si="4">IF(J131&lt;&gt;"","","INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES("&amp;"'"&amp;B131&amp;"',"&amp;"'"&amp;D131&amp;"',"&amp;"'"&amp;F131&amp;"',"&amp;"'"&amp;G131&amp;"',"&amp;"'"&amp;H131&amp;"',"&amp;"'"&amp;I131&amp;"'"&amp;");")</f>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Вычислительный центр им. А.А. Дородницына Российской академии наук Федерального исследовательского центра «Информатика и управление» Российской академии наук','ВЦ ФИЦ ИУ РАН','Россия','www.ccas.ru','Адрес: 119333, Москва, ул. Вавилова, 40, 
 Телефон: 8-499-135-04-40 
 Факс:   8-499-135-61-59 
 Электронная почта:wcan@ccas.ru 
 ','входит в состав Федерального исследовательского центра «Информатика и управление» на базе Института проблем информатики РАН');</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="L131" s="2" t="str">
+        <f t="shared" ref="L131:L134" si="5">"INSERT name_ref  ( `src_name`, `full_name`) VALUES("&amp;"'"&amp;A131&amp;"',"&amp;"'"&amp;B131&amp;"'"&amp;");"</f>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Вычислительный центр им. А.А. Дородницына Российской академии наук','Вычислительный центр им. А.А. Дородницына Российской академии наук Федерального исследовательского центра «Информатика и управление» Российской академии наук');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>1291</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
       <c r="K132" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное образовательное учреждение высшего образования «Государственный университет морского и речного флота имени адмирала С.О. Макарова»','ФГБОУ ВО «ГУМРФ имени адмирала С.О. Макарова»','Россия','gumrf.ru','Адрес Университета: 198035, г. Санкт-Петербург, ул. Двинская, 5/7
 тел. 748-96-92 
 тел. 748-96-93
 E-mail: otd_o@gumrf.ru','');</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L132" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Государственный университет морского и речного флота им. адмирала С.О. Макарова','Федеральное государственное бюджетное образовательное учреждение высшего образования «Государственный университет морского и речного флота имени адмирала С.О. Макарова»');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H133" s="9" t="s">
         <v>1296</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>1300</v>
-      </c>
       <c r="K133" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Федеральное государственное бюджетное учреждение науки институт проблем передачи информации  им. А.А.Харкевича  Российской академии наук','ИППИ РАН','Россия','www.iitp.ru','127051, МОСКВА Г, КАРЕТНЫЙ Б. ПЕР, ДОМ 19, СТРОЕНИЕ 1
 Телефон: 8 (495) 650-42-25
 Факс: 650-05-79','');</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L133" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Институт проблем передачи информации  им. А.А.Харкевича  Российской академии наук','Федеральное государственное бюджетное учреждение науки институт проблем передачи информации  им. А.А.Харкевича  Российской академии наук');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H134" s="9" t="s">
         <v>1301</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="G134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>1302</v>
       </c>
-      <c r="H134" s="9" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I134" s="2" t="s">
-        <v>1306</v>
-      </c>
       <c r="K134" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>INSERT organization  ( `full_name`, `short_name`, `country`, `site`, `contact_information`,`notes`) VALUES('Институт автоматики и вычислительной техники НИУ МЭИ','АВТИ НИУ МЭИ','Россия','avti.mpei.ru','Адрес: 111250, Россия, г. Москва,
 Красноказарменная улица, дом 14
 Справочная МЭИ: +7 495 362-75-60
 Email: universe@mpei.ac.ru','входит в состав федерального  государственного бюджетного образовательного учреждения высшего образования «Национальный исследовательский университет « МЭИ»');</v>
       </c>
+      <c r="L134" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>INSERT name_ref  ( `src_name`, `full_name`) VALUES('Московский энергетический институт : Институт автоматики и вычислительной техники [АВТИ] ','Институт автоматики и вычислительной техники НИУ МЭИ');</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J129"/>
+  <autoFilter ref="F1:F134"/>
   <sortState ref="A1:A131">
     <sortCondition ref="A1:A131"/>
   </sortState>
@@ -24979,10 +25502,10 @@
     <hyperlink ref="G117" r:id="rId80"/>
     <hyperlink ref="G121" r:id="rId81"/>
     <hyperlink ref="G122" r:id="rId82"/>
-    <hyperlink ref="G123" r:id="rId83"/>
-    <hyperlink ref="G130" r:id="rId84"/>
-    <hyperlink ref="G131" r:id="rId85"/>
-    <hyperlink ref="G133" r:id="rId86"/>
+    <hyperlink ref="G130" r:id="rId83"/>
+    <hyperlink ref="G131" r:id="rId84"/>
+    <hyperlink ref="G133" r:id="rId85"/>
+    <hyperlink ref="G123" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" copies="0" r:id="rId87"/>
